--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCC4002-223A-4E67-B8B7-704CEE9F92D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2A0BDB-4295-4CA0-ABF2-91854DEFC61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1545" windowWidth="20745" windowHeight="13995" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
+    <workbookView xWindow="1065" yWindow="825" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1982,7 @@
         <v>0.81050605478974014</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" ref="L20:T20" si="49">K20*1.01</f>
+        <f t="shared" ref="L20:O20" si="49">K20*1.01</f>
         <v>0.81861111533763753</v>
       </c>
       <c r="M20" s="4">
@@ -2016,7 +2016,7 @@
         <v>21</v>
       </c>
       <c r="W20" s="7">
-        <v>8.5000000000000006E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="W21" s="2">
         <f>NPV(W20,K28:BW28)+Sheet1!G5-Sheet1!G6</f>
-        <v>221430.08882482385</v>
+        <v>168689.2426095939</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="W22" s="2">
         <f>W21/Sheet1!G3</f>
-        <v>98.457131536160006</v>
+        <v>75.006332863314313</v>
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="W23" s="4">
         <f>W22/Sheet1!G2-1</f>
-        <v>5.8678833722150658E-2</v>
+        <v>-0.19348029179231918</v>
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85973F39-C431-4DEC-B924-8253B72C112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCE71FC-166B-40F7-8F58-7AB2E193906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -230,6 +230,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +673,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,7 +690,7 @@
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>119</v>
       </c>
     </row>
@@ -760,7 +761,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1252,7 @@
         <v>1658.3999999999999</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:R8" si="25">SUM(L5:L7)</f>
+        <f t="shared" ref="L8:M8" si="25">SUM(L5:L7)</f>
         <v>1673.8</v>
       </c>
       <c r="M8" s="1">
@@ -1388,44 +1389,44 @@
         <v>196.8</v>
       </c>
       <c r="N10" s="1">
-        <f>M32*$Z$19</f>
-        <v>298.73399999999998</v>
+        <f t="shared" ref="N10:W10" si="32">M32*$Z$19</f>
+        <v>199.15599999999998</v>
       </c>
       <c r="O10" s="1">
-        <f>N32*$Z$19</f>
-        <v>358.51449995434228</v>
+        <f t="shared" si="32"/>
+        <v>235.34519623622822</v>
       </c>
       <c r="P10" s="1">
-        <f>O32*$Z$19</f>
-        <v>457.44897779930898</v>
+        <f t="shared" si="32"/>
+        <v>296.76888442271274</v>
       </c>
       <c r="Q10" s="1">
-        <f>P32*$Z$19</f>
-        <v>614.41514790508381</v>
+        <f t="shared" si="32"/>
+        <v>395.49997039030382</v>
       </c>
       <c r="R10" s="1">
-        <f>Q32*$Z$19</f>
-        <v>856.04881626847646</v>
+        <f t="shared" si="32"/>
+        <v>548.53300410002157</v>
       </c>
       <c r="S10" s="1">
-        <f>R32*$Z$19</f>
-        <v>1219.7072619541032</v>
+        <f t="shared" si="32"/>
+        <v>779.65538600264028</v>
       </c>
       <c r="T10" s="1">
-        <f>S32*$Z$19</f>
-        <v>1691.3683745417525</v>
+        <f t="shared" si="32"/>
+        <v>1077.9022186927259</v>
       </c>
       <c r="U10" s="1">
-        <f>T32*$Z$19</f>
-        <v>2300.1841911204679</v>
+        <f t="shared" si="32"/>
+        <v>1461.2038752099584</v>
       </c>
       <c r="V10" s="1">
-        <f>U32*$Z$19</f>
-        <v>3078.9566532670574</v>
+        <f t="shared" si="32"/>
+        <v>1949.5110410155119</v>
       </c>
       <c r="W10" s="1">
-        <f>V32*$Z$19</f>
-        <v>4067.6451097385798</v>
+        <f t="shared" si="32"/>
+        <v>2567.0730801323366</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1446,39 +1447,39 @@
         <v>-18.18</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:R11" si="32">N11*1.01</f>
+        <f t="shared" ref="O11:R11" si="33">N11*1.01</f>
         <v>-18.361799999999999</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-18.545417999999998</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-18.730872179999999</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-18.9181809018</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11" si="33">R11*1.01</f>
+        <f t="shared" ref="S11" si="34">R11*1.01</f>
         <v>-19.107362710817998</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11" si="34">S11*1.01</f>
+        <f t="shared" ref="T11" si="35">S11*1.01</f>
         <v>-19.29843633792618</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11" si="35">T11*1.01</f>
+        <f t="shared" ref="U11" si="36">T11*1.01</f>
         <v>-19.491420701305444</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" ref="V11" si="36">U11*1.01</f>
+        <f t="shared" ref="V11" si="37">U11*1.01</f>
         <v>-19.6863349083185</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" ref="W11" si="37">V11*1.01</f>
+        <f t="shared" ref="W11" si="38">V11*1.01</f>
         <v>-19.883198257401684</v>
       </c>
     </row>
@@ -1491,68 +1492,68 @@
         <v>356</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:I12" si="38">G9+SUM(G10:G11)</f>
+        <f t="shared" ref="G12:I12" si="39">G9+SUM(G10:G11)</f>
         <v>938</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1022.4200000000001</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1114.4378000000002</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:R12" si="39">K9+SUM(K10:K11)</f>
+        <f t="shared" ref="K12:R12" si="40">K9+SUM(K10:K11)</f>
         <v>-360.7999999999999</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>237.20000000000013</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>489.31000000000023</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="39"/>
-        <v>1082.9800716366367</v>
+        <f t="shared" si="40"/>
+        <v>983.40207163663661</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="39"/>
-        <v>1792.291265307367</v>
+        <f t="shared" si="40"/>
+        <v>1669.1219615892528</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="39"/>
-        <v>2843.5900381480933</v>
+        <f t="shared" si="40"/>
+        <v>2682.9099447714971</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="39"/>
-        <v>4377.4215283223293</v>
+        <f t="shared" si="40"/>
+        <v>4158.5063508075491</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="39"/>
-        <v>6588.0153203917907</v>
+        <f t="shared" si="40"/>
+        <v>6280.4995082233354</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" ref="S12:T12" si="40">S9+SUM(S10:S11)</f>
-        <v>8544.5853729646587</v>
+        <f t="shared" ref="S12:T12" si="41">S9+SUM(S10:S11)</f>
+        <v>8104.5334970131971</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="40"/>
-        <v>11029.272039469473</v>
+        <f t="shared" si="41"/>
+        <v>10415.805883620447</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" ref="U12:W12" si="41">U9+SUM(U10:U11)</f>
-        <v>14108.196778017937</v>
+        <f t="shared" ref="U12:W12" si="42">U9+SUM(U10:U11)</f>
+        <v>13269.216462107428</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="41"/>
-        <v>17911.02276216527</v>
+        <f t="shared" si="42"/>
+        <v>16781.577149913723</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="41"/>
-        <v>22594.487242205814</v>
+        <f t="shared" si="42"/>
+        <v>21093.915212599572</v>
       </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.2">
@@ -1564,11 +1565,11 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:I13" si="42">H24*H12</f>
+        <f t="shared" ref="H13:I13" si="43">H24*H12</f>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
@@ -1582,43 +1583,43 @@
       </c>
       <c r="N13" s="1">
         <f>N24*N12</f>
-        <v>86.638405730930941</v>
+        <v>78.672165730930928</v>
       </c>
       <c r="O13" s="1">
         <f>O24*O12</f>
-        <v>143.38330122458936</v>
+        <v>133.52975692714023</v>
       </c>
       <c r="P13" s="1">
         <f>P24*P12</f>
-        <v>227.48720305184747</v>
+        <v>214.63279558171976</v>
       </c>
       <c r="Q13" s="1">
         <f>Q24*Q12</f>
-        <v>350.19372226578633</v>
+        <v>332.68050806460394</v>
       </c>
       <c r="R13" s="1">
         <f>R24*R12</f>
-        <v>527.04122563134331</v>
+        <v>502.43996065786683</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" ref="S13:T13" si="43">S24*S12</f>
-        <v>683.56682983717269</v>
+        <f t="shared" ref="S13:T13" si="44">S24*S12</f>
+        <v>648.3626797610558</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="43"/>
-        <v>882.34176315755792</v>
+        <f t="shared" si="44"/>
+        <v>833.2644706896358</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13" si="44">U24*U12</f>
-        <v>1128.6557422414351</v>
+        <f t="shared" ref="U13" si="45">U24*U12</f>
+        <v>1061.5373169685943</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13" si="45">V24*V12</f>
-        <v>1432.8818209732217</v>
+        <f t="shared" ref="V13" si="46">V24*V12</f>
+        <v>1342.5261719930979</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ref="W13" si="46">W24*W12</f>
-        <v>1807.5589793764652</v>
+        <f t="shared" ref="W13" si="47">W24*W12</f>
+        <v>1687.5132170079657</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="15" x14ac:dyDescent="0.25">
@@ -1634,15 +1635,15 @@
         <v>356</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14:I14" si="47">G12-G13</f>
+        <f t="shared" ref="G14:I14" si="48">G12-G13</f>
         <v>938</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1022.4200000000001</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1114.4378000000002</v>
       </c>
       <c r="J14" s="3"/>
@@ -1660,263 +1661,263 @@
       </c>
       <c r="N14" s="3">
         <f>N12-N13</f>
-        <v>996.34166590570578</v>
+        <v>904.72990590570566</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14:W14" si="48">O12-O13</f>
-        <v>1648.9079640827777</v>
+        <f t="shared" ref="O14:W14" si="49">O12-O13</f>
+        <v>1535.5922046621126</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="48"/>
-        <v>2616.1028350962461</v>
+        <f t="shared" si="49"/>
+        <v>2468.2771491897774</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="48"/>
-        <v>4027.2278060565432</v>
+        <f t="shared" si="49"/>
+        <v>3825.825842742945</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="48"/>
-        <v>6060.9740947604478</v>
+        <f t="shared" si="49"/>
+        <v>5778.0595475654682</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="48"/>
-        <v>7861.0185431274858</v>
+        <f t="shared" si="49"/>
+        <v>7456.1708172521412</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="48"/>
-        <v>10146.930276311916</v>
+        <f t="shared" si="49"/>
+        <v>9582.5414129308119</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="48"/>
-        <v>12979.541035776501</v>
+        <f t="shared" si="49"/>
+        <v>12207.679145138834</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="48"/>
-        <v>16478.140941192047</v>
+        <f t="shared" si="49"/>
+        <v>15439.050977920624</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="48"/>
-        <v>20786.928262829348</v>
+        <f t="shared" si="49"/>
+        <v>19406.401995591605</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" ref="X14:BC14" si="49">W14*(1+$Z$20)</f>
-        <v>21410.536110714227</v>
+        <f t="shared" ref="X14:BC14" si="50">W14*(1+$Z$20)</f>
+        <v>19988.594055459354</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="49"/>
-        <v>22052.852194035655</v>
+        <f t="shared" si="50"/>
+        <v>20588.251877123137</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="49"/>
-        <v>22714.437759856726</v>
+        <f t="shared" si="50"/>
+        <v>21205.899433436833</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="49"/>
-        <v>23395.870892652427</v>
+        <f t="shared" si="50"/>
+        <v>21842.076416439937</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="49"/>
-        <v>24097.747019432001</v>
+        <f t="shared" si="50"/>
+        <v>22497.338708933137</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="49"/>
-        <v>24820.679430014963</v>
+        <f t="shared" si="50"/>
+        <v>23172.258870201131</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="49"/>
-        <v>25565.299812915411</v>
+        <f t="shared" si="50"/>
+        <v>23867.426636307166</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="49"/>
-        <v>26332.258807302875</v>
+        <f t="shared" si="50"/>
+        <v>24583.449435396382</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="49"/>
-        <v>27122.226571521962</v>
+        <f t="shared" si="50"/>
+        <v>25320.952918458275</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="49"/>
-        <v>27935.893368667621</v>
+        <f t="shared" si="50"/>
+        <v>26080.581506012026</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="49"/>
-        <v>28773.970169727651</v>
+        <f t="shared" si="50"/>
+        <v>26862.998951192389</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="49"/>
-        <v>29637.18927481948</v>
+        <f t="shared" si="50"/>
+        <v>27668.888919728161</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="49"/>
-        <v>30526.304953064067</v>
+        <f t="shared" si="50"/>
+        <v>28498.955587320008</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="49"/>
-        <v>31442.094101655992</v>
+        <f t="shared" si="50"/>
+        <v>29353.924254939608</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="49"/>
-        <v>32385.356924705673</v>
+        <f t="shared" si="50"/>
+        <v>30234.541982587798</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="49"/>
-        <v>33356.917632446843</v>
+        <f t="shared" si="50"/>
+        <v>31141.578242065432</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="49"/>
-        <v>34357.625161420248</v>
+        <f t="shared" si="50"/>
+        <v>32075.825589327396</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="49"/>
-        <v>35388.353916262859</v>
+        <f t="shared" si="50"/>
+        <v>33038.100357007221</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" si="49"/>
-        <v>36450.004533750747</v>
+        <f t="shared" si="50"/>
+        <v>34029.243367717441</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="49"/>
-        <v>37543.504669763272</v>
+        <f t="shared" si="50"/>
+        <v>35050.120668748968</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="49"/>
-        <v>38669.809809856168</v>
+        <f t="shared" si="50"/>
+        <v>36101.624288811436</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="49"/>
-        <v>39829.90410415185</v>
+        <f t="shared" si="50"/>
+        <v>37184.673017475783</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="49"/>
-        <v>41024.80122727641</v>
+        <f t="shared" si="50"/>
+        <v>38300.213208000059</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="49"/>
-        <v>42255.545264094704</v>
+        <f t="shared" si="50"/>
+        <v>39449.219604240061</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="49"/>
-        <v>43523.211622017545</v>
+        <f t="shared" si="50"/>
+        <v>40632.696192367264</v>
       </c>
       <c r="AW14" s="3">
-        <f t="shared" si="49"/>
-        <v>44828.907970678076</v>
+        <f t="shared" si="50"/>
+        <v>41851.67707813828</v>
       </c>
       <c r="AX14" s="3">
-        <f t="shared" si="49"/>
-        <v>46173.775209798419</v>
+        <f t="shared" si="50"/>
+        <v>43107.227390482432</v>
       </c>
       <c r="AY14" s="3">
-        <f t="shared" si="49"/>
-        <v>47558.988466092371</v>
+        <f t="shared" si="50"/>
+        <v>44400.444212196904</v>
       </c>
       <c r="AZ14" s="3">
-        <f t="shared" si="49"/>
-        <v>48985.758120075145</v>
+        <f t="shared" si="50"/>
+        <v>45732.457538562812</v>
       </c>
       <c r="BA14" s="3">
-        <f t="shared" si="49"/>
-        <v>50455.330863677402</v>
+        <f t="shared" si="50"/>
+        <v>47104.4312647197</v>
       </c>
       <c r="BB14" s="3">
-        <f t="shared" si="49"/>
-        <v>51968.990789587726</v>
+        <f t="shared" si="50"/>
+        <v>48517.564202661291</v>
       </c>
       <c r="BC14" s="3">
-        <f t="shared" si="49"/>
-        <v>53528.060513275363</v>
+        <f t="shared" si="50"/>
+        <v>49973.091128741129</v>
       </c>
       <c r="BD14" s="3">
-        <f t="shared" ref="BD14:BZ14" si="50">BC14*(1+$Z$20)</f>
-        <v>55133.902328673626</v>
+        <f t="shared" ref="BD14:BZ14" si="51">BC14*(1+$Z$20)</f>
+        <v>51472.283862603363</v>
       </c>
       <c r="BE14" s="3">
-        <f t="shared" si="50"/>
-        <v>56787.919398533835</v>
+        <f t="shared" si="51"/>
+        <v>53016.452378481466</v>
       </c>
       <c r="BF14" s="3">
-        <f t="shared" si="50"/>
-        <v>58491.556980489855</v>
+        <f t="shared" si="51"/>
+        <v>54606.945949835914</v>
       </c>
       <c r="BG14" s="3">
-        <f t="shared" si="50"/>
-        <v>60246.303689904555</v>
+        <f t="shared" si="51"/>
+        <v>56245.154328330995</v>
       </c>
       <c r="BH14" s="3">
-        <f t="shared" si="50"/>
-        <v>62053.69280060169</v>
+        <f t="shared" si="51"/>
+        <v>57932.508958180922</v>
       </c>
       <c r="BI14" s="3">
-        <f t="shared" si="50"/>
-        <v>63915.303584619745</v>
+        <f t="shared" si="51"/>
+        <v>59670.484226926354</v>
       </c>
       <c r="BJ14" s="3">
-        <f t="shared" si="50"/>
-        <v>65832.762692158343</v>
+        <f t="shared" si="51"/>
+        <v>61460.598753734143</v>
       </c>
       <c r="BK14" s="3">
-        <f t="shared" si="50"/>
-        <v>67807.745572923101</v>
+        <f t="shared" si="51"/>
+        <v>63304.416716346168</v>
       </c>
       <c r="BL14" s="3">
-        <f t="shared" si="50"/>
-        <v>69841.977940110795</v>
+        <f t="shared" si="51"/>
+        <v>65203.549217836553</v>
       </c>
       <c r="BM14" s="3">
-        <f t="shared" si="50"/>
-        <v>71937.237278314118</v>
+        <f t="shared" si="51"/>
+        <v>67159.655694371657</v>
       </c>
       <c r="BN14" s="3">
-        <f t="shared" si="50"/>
-        <v>74095.354396663548</v>
+        <f t="shared" si="51"/>
+        <v>69174.445365202802</v>
       </c>
       <c r="BO14" s="3">
-        <f t="shared" si="50"/>
-        <v>76318.215028563456</v>
+        <f t="shared" si="51"/>
+        <v>71249.678726158891</v>
       </c>
       <c r="BP14" s="3">
-        <f t="shared" si="50"/>
-        <v>78607.761479420355</v>
+        <f t="shared" si="51"/>
+        <v>73387.169087943665</v>
       </c>
       <c r="BQ14" s="3">
-        <f t="shared" si="50"/>
-        <v>80965.994323802966</v>
+        <f t="shared" si="51"/>
+        <v>75588.78416058197</v>
       </c>
       <c r="BR14" s="3">
-        <f t="shared" si="50"/>
-        <v>83394.974153517061</v>
+        <f t="shared" si="51"/>
+        <v>77856.447685399427</v>
       </c>
       <c r="BS14" s="3">
-        <f t="shared" si="50"/>
-        <v>85896.823378122572</v>
+        <f t="shared" si="51"/>
+        <v>80192.141115961407</v>
       </c>
       <c r="BT14" s="3">
-        <f t="shared" si="50"/>
-        <v>88473.728079466251</v>
+        <f t="shared" si="51"/>
+        <v>82597.905349440247</v>
       </c>
       <c r="BU14" s="3">
-        <f t="shared" si="50"/>
-        <v>91127.939921850237</v>
+        <f t="shared" si="51"/>
+        <v>85075.842509923459</v>
       </c>
       <c r="BV14" s="3">
-        <f t="shared" si="50"/>
-        <v>93861.778119505747</v>
+        <f t="shared" si="51"/>
+        <v>87628.117785221169</v>
       </c>
       <c r="BW14" s="3">
-        <f t="shared" si="50"/>
-        <v>96677.631463090918</v>
+        <f t="shared" si="51"/>
+        <v>90256.961318777801</v>
       </c>
       <c r="BX14" s="3">
-        <f t="shared" si="50"/>
-        <v>99577.96040698365</v>
+        <f t="shared" si="51"/>
+        <v>92964.670158341134</v>
       </c>
       <c r="BY14" s="3">
-        <f t="shared" si="50"/>
-        <v>102565.29921919316</v>
+        <f t="shared" si="51"/>
+        <v>95753.610263091367</v>
       </c>
       <c r="BZ14" s="3">
-        <f t="shared" si="50"/>
-        <v>105642.25819576895</v>
+        <f t="shared" si="51"/>
+        <v>98626.218570984114</v>
       </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.2">
@@ -1948,11 +1949,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="4" t="e">
-        <f t="shared" ref="H18:I18" si="51">H2/D2-1</f>
+        <f t="shared" ref="H18:I18" si="52">H2/D2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.34675262839879162</v>
       </c>
       <c r="J18" s="3"/>
@@ -1970,39 +1971,39 @@
         <v>0.3731836677717677</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18:W18" si="52">O2/N2-1</f>
+        <f t="shared" ref="O18:W18" si="53">O2/N2-1</f>
         <v>0.34000000000000008</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -2023,11 +2024,11 @@
         <v>9.0697674418604546E-2</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" ref="H19:I19" si="53">H2/G2-1</f>
+        <f t="shared" ref="H19:I19" si="54">H2/G2-1</f>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="J19" s="3"/>
@@ -2048,7 +2049,7 @@
         <v>36</v>
       </c>
       <c r="Z19" s="5">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.2">
@@ -2091,39 +2092,39 @@
         <v>0.20392759088692775</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:W20" si="54">O9/O2</f>
+        <f t="shared" ref="O20:W20" si="55">O9/O2</f>
         <v>0.27540652079780564</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.34034535078370187</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.39943665334639089</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.45330073545136418</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.48239447764889076</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.5121949378448164</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.53951202635774831</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.56455269082793591</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.58750663325894126</v>
       </c>
       <c r="Y20" s="1" t="s">
@@ -2138,27 +2139,27 @@
         <v>33</v>
       </c>
       <c r="B21" s="6" t="e">
-        <f>B4/B2-1</f>
+        <f t="shared" ref="B21:G21" si="56">B4/B2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C21" s="6" t="e">
-        <f>C4/C2-1</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D21" s="6" t="e">
-        <f>D4/D2-1</f>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="6">
-        <f>E4/E2-1</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f>F4/F2-1</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f>G4/G2-1</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
@@ -2180,19 +2181,19 @@
         <v>0.81050605478974014</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" ref="O21:R21" si="55">N21*1.01</f>
+        <f t="shared" ref="O21:R21" si="57">N21*1.01</f>
         <v>0.81861111533763753</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.82679722649101395</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.83506519875592411</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.84341585074348335</v>
       </c>
       <c r="S21" s="6">
@@ -2235,61 +2236,61 @@
         <v>#REF!</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ref="K23:N23" si="56">K20+K18</f>
+        <f t="shared" ref="K23:N23" si="58">K20+K18</f>
         <v>-8.4531430370448066E-2</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.2214662467382244</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.39622671102754792</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.5771112586586955</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" ref="O23:W23" si="57">O20+O18</f>
+        <f t="shared" ref="O23:W23" si="59">O20+O18</f>
         <v>0.61540652079780567</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.68034535078370195</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.73943665334639097</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.79330073545136426</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.68239447764889072</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.71219493784481636</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.73951202635774826</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.76455269082793587</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.78750663325894121</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="9">
         <f>Z22/Sheet1!D3</f>
         <v>108.99585593405509</v>
       </c>
@@ -2373,35 +2374,35 @@
         <v>0.43915182906990946</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" ref="P25:W25" si="58">O25*1.08</f>
+        <f t="shared" ref="P25:W25" si="60">O25*1.08</f>
         <v>0.47428397539550227</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.51222669342714244</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.55320482890131384</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.59746121521341899</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.64525811243049258</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.69687876142493199</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.75262906233892657</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.81283938732604077</v>
       </c>
     </row>
@@ -2458,11 +2459,11 @@
         <v>-116.90000000000003</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" ref="L29:M29" si="59">L27-L28</f>
+        <f t="shared" ref="L29:M29" si="61">L27-L28</f>
         <v>-1998.9999999999998</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1108.3999999999999</v>
       </c>
       <c r="N29" s="3">
@@ -2473,235 +2474,235 @@
         <v>2315.5200000000004</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" ref="P29:W29" si="60">P25*P2</f>
+        <f t="shared" ref="P29:W29" si="62">P25*P2</f>
         <v>3351.0205440000013</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4849.596931276802</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>7018.3366789437887</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9095.7643359111498</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>11788.110579340851</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>15277.391310825744</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>19799.499138830164</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>25660.150883923896</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" ref="X29:BC29" si="61">W29*(1+$Z$20)</f>
+        <f t="shared" ref="X29:BC29" si="63">W29*(1+$Z$20)</f>
         <v>26429.955410441613</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>27222.854072754861</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>28039.539694937506</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>28880.725885785632</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>29747.147662359203</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>30639.562092229979</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>31558.748954996878</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>32505.511423646785</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>33480.676766356191</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>34485.097069346877</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>35519.649981427283</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>36585.239480870099</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>37682.796665296206</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>38813.280565255096</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>39977.678982212747</v>
       </c>
       <c r="AM29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>41177.009351679131</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>42412.319632229504</v>
       </c>
       <c r="AO29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>43684.689221196393</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>44995.229897832287</v>
       </c>
       <c r="AQ29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>46345.08679476726</v>
       </c>
       <c r="AR29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>47735.43939861028</v>
       </c>
       <c r="AS29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>49167.502580568587</v>
       </c>
       <c r="AT29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>50642.527657985644</v>
       </c>
       <c r="AU29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>52161.803487725214</v>
       </c>
       <c r="AV29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>53726.657592356969</v>
       </c>
       <c r="AW29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>55338.45732012768</v>
       </c>
       <c r="AX29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>56998.611039731513</v>
       </c>
       <c r="AY29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>58708.569370923462</v>
       </c>
       <c r="AZ29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>60469.826452051166</v>
       </c>
       <c r="BA29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>62283.921245612699</v>
       </c>
       <c r="BB29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>64152.438882981085</v>
       </c>
       <c r="BC29" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>66077.012049470519</v>
       </c>
       <c r="BD29" s="3">
-        <f t="shared" ref="BD29:BU29" si="62">BC29*(1+$Z$20)</f>
+        <f t="shared" ref="BD29:BU29" si="64">BC29*(1+$Z$20)</f>
         <v>68059.322410954643</v>
       </c>
       <c r="BE29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>70101.102083283287</v>
       </c>
       <c r="BF29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>72204.135145781795</v>
       </c>
       <c r="BG29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>74370.259200155255</v>
       </c>
       <c r="BH29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>76601.366976159916</v>
       </c>
       <c r="BI29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>78899.407985444719</v>
       </c>
       <c r="BJ29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>81266.390225008057</v>
       </c>
       <c r="BK29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>83704.381931758297</v>
       </c>
       <c r="BL29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>86215.51338971105</v>
       </c>
       <c r="BM29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>88801.978791402391</v>
       </c>
       <c r="BN29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>91466.038155144459</v>
       </c>
       <c r="BO29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>94210.019299798791</v>
       </c>
       <c r="BP29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>97036.319878792754</v>
       </c>
       <c r="BQ29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>99947.409475156543</v>
       </c>
       <c r="BR29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>102945.83175941125</v>
       </c>
       <c r="BS29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>106034.20671219358</v>
       </c>
       <c r="BT29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>109215.23291355939</v>
       </c>
       <c r="BU29" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>112491.68990096617</v>
       </c>
     </row>
@@ -2749,43 +2750,43 @@
       </c>
       <c r="N32" s="1">
         <f>M32+N14</f>
-        <v>5975.2416659057053</v>
+        <v>5883.6299059057055</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" ref="O32:R32" si="63">N32+O14</f>
-        <v>7624.149629988483</v>
+        <f t="shared" ref="O32:R32" si="65">N32+O14</f>
+        <v>7419.2221105678182</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="63"/>
-        <v>10240.25246508473</v>
+        <f t="shared" si="65"/>
+        <v>9887.4992597575947</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="63"/>
-        <v>14267.480271141274</v>
+        <f t="shared" si="65"/>
+        <v>13713.325102500539</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="63"/>
-        <v>20328.454365901722</v>
+        <f t="shared" si="65"/>
+        <v>19491.384650066007</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" ref="S32:W32" si="64">R32+S14</f>
-        <v>28189.472909029209</v>
+        <f t="shared" ref="S32:W32" si="66">R32+S14</f>
+        <v>26947.555467318147</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="64"/>
-        <v>38336.403185341129</v>
+        <f t="shared" si="66"/>
+        <v>36530.096880248959</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="64"/>
-        <v>51315.944221117628</v>
+        <f t="shared" si="66"/>
+        <v>48737.776025387793</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="64"/>
-        <v>67794.085162309668</v>
+        <f t="shared" si="66"/>
+        <v>64176.827003308419</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="64"/>
-        <v>88581.013425139012</v>
+        <f t="shared" si="66"/>
+        <v>83583.228998900027</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCE71FC-166B-40F7-8F58-7AB2E193906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0957F52-0730-46D9-82CC-56FE94CCB052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
+    <workbookView xWindow="960" yWindow="630" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>PLTR</t>
   </si>
@@ -123,9 +123,6 @@
     <t>G&amp;A</t>
   </si>
   <si>
-    <t>OPEX</t>
-  </si>
-  <si>
     <t>Pretax Income</t>
   </si>
   <si>
@@ -172,19 +169,31 @@
   </si>
   <si>
     <t>Revenue q/q</t>
+  </si>
+  <si>
+    <t>OPEX Margin</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -220,17 +229,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,7 +270,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -310,7 +320,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -755,18 +765,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D10906-26CA-4CF3-9151-8BD547BB3B30}">
-  <dimension ref="A1:BZ36"/>
+  <dimension ref="A1:BZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
+      <selection pane="bottomRight" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -787,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K1" s="2">
         <v>2022</v>
@@ -886,40 +896,40 @@
         <v>3934.8578000000002</v>
       </c>
       <c r="O2" s="3">
-        <f>N2*1.34</f>
-        <v>5272.709452000001</v>
+        <f>N2*1.5</f>
+        <v>5902.2867000000006</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:R2" si="5">O2*1.34</f>
-        <v>7065.4306656800018</v>
+        <f>O2*1.7</f>
+        <v>10033.88739</v>
       </c>
       <c r="Q2" s="3">
+        <f>P2*2</f>
+        <v>20067.77478</v>
+      </c>
+      <c r="R2" s="3">
+        <f>Q2*1.4</f>
+        <v>28094.884692</v>
+      </c>
+      <c r="S2" s="3">
+        <f>R2*1.34</f>
+        <v>37647.145487280002</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" ref="T2:W2" si="5">S2*1.34</f>
+        <v>50447.174952955203</v>
+      </c>
+      <c r="U2" s="3">
         <f t="shared" si="5"/>
-        <v>9467.6770920112031</v>
-      </c>
-      <c r="R2" s="3">
+        <v>67599.21443695997</v>
+      </c>
+      <c r="V2" s="3">
         <f t="shared" si="5"/>
-        <v>12686.687303295013</v>
-      </c>
-      <c r="S2" s="3">
-        <f>R2*1.2</f>
-        <v>15224.024763954016</v>
-      </c>
-      <c r="T2" s="3">
-        <f t="shared" ref="T2:W2" si="6">S2*1.2</f>
-        <v>18268.829716744818</v>
-      </c>
-      <c r="U2" s="3">
-        <f t="shared" si="6"/>
-        <v>21922.595660093782</v>
-      </c>
-      <c r="V2" s="3">
-        <f t="shared" si="6"/>
-        <v>26307.114792112538</v>
+        <v>90582.947345526365</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" si="6"/>
-        <v>31568.537750535044</v>
+        <f t="shared" si="5"/>
+        <v>121381.14944300534</v>
       </c>
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
@@ -941,39 +951,39 @@
       </c>
       <c r="O3" s="1">
         <f>O2*(1-O21)</f>
-        <v>956.41088664697656</v>
+        <v>1070.6092014704961</v>
       </c>
       <c r="P3" s="1">
         <f>P2*(1-P21)</f>
-        <v>1223.752187331218</v>
+        <v>1737.8971250248412</v>
       </c>
       <c r="Q3" s="1">
         <f>Q2*(1-Q21)</f>
-        <v>1561.5494394139582</v>
+        <v>3309.8744447501786</v>
       </c>
       <c r="R3" s="1">
         <f>R2*(1-R21)</f>
-        <v>1986.534138269901</v>
+        <v>4399.2136179567524</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:T3" si="7">S2*(1-S21)</f>
-        <v>2435.8439622326432</v>
+        <f t="shared" ref="S3:T3" si="6">S2*(1-S21)</f>
+        <v>6023.5432779648017</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" si="7"/>
-        <v>2923.0127546791714</v>
+        <f t="shared" si="6"/>
+        <v>8071.5479924728343</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3" si="8">U2*(1-U21)</f>
-        <v>3507.615305615006</v>
+        <f t="shared" ref="U3" si="7">U2*(1-U21)</f>
+        <v>10815.874309913597</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3" si="9">V2*(1-V21)</f>
-        <v>4209.1383667380069</v>
+        <f t="shared" ref="V3" si="8">V2*(1-V21)</f>
+        <v>14493.271575284221</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3" si="10">W2*(1-W21)</f>
-        <v>5050.9660400856083</v>
+        <f t="shared" ref="W3" si="9">W2*(1-W21)</f>
+        <v>19420.983910880859</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -1001,15 +1011,15 @@
         <v>860</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:I4" si="11">G2-G3</f>
+        <f t="shared" ref="G4:I4" si="10">G2-G3</f>
         <v>938</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1022.4200000000001</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1114.4378000000002</v>
       </c>
       <c r="K4" s="1">
@@ -1017,52 +1027,52 @@
         <v>1497.3</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:R4" si="12">L2-L3</f>
+        <f t="shared" ref="L4:R4" si="11">L2-L3</f>
         <v>1793.9</v>
       </c>
       <c r="M4" s="1">
+        <f t="shared" si="11"/>
+        <v>2299.5100000000002</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="11"/>
+        <v>3189.2260716366363</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="11"/>
+        <v>4831.6774985295042</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="11"/>
+        <v>8295.9902649751584</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="11"/>
+        <v>16757.900335249822</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="11"/>
+        <v>23695.671074043246</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:T4" si="12">S2-S3</f>
+        <v>31623.602209315199</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="12"/>
-        <v>2299.5100000000002</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="12"/>
-        <v>3189.2260716366363</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="12"/>
-        <v>4316.2985653530241</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="12"/>
-        <v>5841.6784783487838</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="12"/>
-        <v>7906.1276525972444</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="12"/>
-        <v>10700.153165025113</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" ref="S4:T4" si="13">S2-S3</f>
-        <v>12788.180801721373</v>
-      </c>
-      <c r="T4" s="1">
+        <v>42375.626960482368</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:W4" si="13">U2-U3</f>
+        <v>56783.340127046373</v>
+      </c>
+      <c r="V4" s="1">
         <f t="shared" si="13"/>
-        <v>15345.816962065646</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" ref="U4:W4" si="14">U2-U3</f>
-        <v>18414.980354478776</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="14"/>
-        <v>22097.976425374531</v>
+        <v>76089.675770242146</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" si="14"/>
-        <v>26517.571710449436</v>
+        <f t="shared" si="13"/>
+        <v>101960.16553212449</v>
       </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.2">
@@ -1083,40 +1093,40 @@
         <v>1218.9751418809983</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:R5" si="15">N5*(1+O18)</f>
-        <v>1633.4266901205378</v>
+        <f t="shared" ref="O5:R5" si="14">N5*(1+O18)</f>
+        <v>1828.4627128214975</v>
       </c>
       <c r="P5" s="1">
+        <f t="shared" si="14"/>
+        <v>3108.3866117965454</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="14"/>
+        <v>6216.7732235930907</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="14"/>
+        <v>8703.482513030327</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:T5" si="15">R5*(1+S18)</f>
+        <v>11662.666567460639</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="15"/>
-        <v>2188.7917647615209</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="15"/>
-        <v>2932.9809647804382</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="15"/>
-        <v>3930.1944928057874</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5:T5" si="16">R5*(1+S18)</f>
-        <v>4716.2333913669445</v>
-      </c>
-      <c r="T5" s="1">
+        <v>15627.973200397257</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5:W5" si="16">T5*(1+U18)</f>
+        <v>20941.484088532321</v>
+      </c>
+      <c r="V5" s="1">
         <f t="shared" si="16"/>
-        <v>5659.4800696403336</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" ref="U5:W5" si="17">T5*(1+U18)</f>
-        <v>6791.3760835683997</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="17"/>
-        <v>8149.6513002820793</v>
+        <v>28061.58867863331</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="17"/>
-        <v>9779.5815603384945</v>
+        <f t="shared" si="16"/>
+        <v>37602.528829368639</v>
       </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.2">
@@ -1137,40 +1147,40 @@
         <v>697.43998486128078</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:R6" si="18">N6*(1+O18)</f>
-        <v>934.56957971411634</v>
+        <f t="shared" ref="O6:R6" si="17">N6*(1+O18)</f>
+        <v>1046.1599772919212</v>
       </c>
       <c r="P6" s="1">
+        <f t="shared" si="17"/>
+        <v>1778.4719613962659</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="17"/>
+        <v>3556.9439227925318</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="17"/>
+        <v>4979.7214919095441</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:T6" si="18">R6*(1+S18)</f>
+        <v>6672.8267991587891</v>
+      </c>
+      <c r="T6" s="1">
         <f t="shared" si="18"/>
-        <v>1252.3232368169161</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="18"/>
-        <v>1678.1131373346675</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="18"/>
-        <v>2248.6716040284546</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" ref="S6:T6" si="19">R6*(1+S18)</f>
-        <v>2698.4059248341455</v>
-      </c>
-      <c r="T6" s="1">
+        <v>8941.5879108727786</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:W6" si="19">T6*(1+U18)</f>
+        <v>11981.727800569523</v>
+      </c>
+      <c r="V6" s="1">
         <f t="shared" si="19"/>
-        <v>3238.0871098009743</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" ref="U6:W6" si="20">T6*(1+U18)</f>
-        <v>3885.7045317611692</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="20"/>
-        <v>4662.8454381134025</v>
+        <v>16055.515252763162</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="20"/>
-        <v>5595.4145257360824</v>
+        <f t="shared" si="19"/>
+        <v>21514.390438702638</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -1191,60 +1201,60 @@
         <v>814.84718845576697</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:R7" si="21">N7*(1+O18)</f>
-        <v>1091.8952325307278</v>
+        <f t="shared" ref="O7:R7" si="20">N7*(1+O18)</f>
+        <v>1222.2707826836504</v>
       </c>
       <c r="P7" s="1">
+        <f t="shared" si="20"/>
+        <v>2077.8603305622055</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="20"/>
+        <v>4155.720661124411</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="20"/>
+        <v>5818.008925574175</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7:T7" si="21">R7*(1+S18)</f>
+        <v>7796.1319602693948</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="21"/>
-        <v>1463.1396115911753</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="21"/>
-        <v>1960.607079532175</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="21"/>
-        <v>2627.2134865731146</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" ref="S7:T7" si="22">R7*(1+S18)</f>
-        <v>3152.6561838877374</v>
-      </c>
-      <c r="T7" s="1">
+        <v>10446.816826760989</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" ref="U7:W7" si="22">T7*(1+U18)</f>
+        <v>13998.734547859724</v>
+      </c>
+      <c r="V7" s="1">
         <f t="shared" si="22"/>
-        <v>3783.1874206652847</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" ref="U7:W7" si="23">T7*(1+U18)</f>
-        <v>4539.8249047983418</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="23"/>
-        <v>5447.7898857580103</v>
+        <v>18758.304294132031</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="23"/>
-        <v>6537.3478629096126</v>
+        <f t="shared" si="22"/>
+        <v>25136.127754136924</v>
       </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
+      <c r="A8" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="1">
         <f>SUM(F5:F7)</f>
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:I8" si="24">SUM(G5:G7)</f>
+        <f t="shared" ref="G8:I8" si="23">SUM(G5:G7)</f>
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
@@ -1252,11 +1262,11 @@
         <v>1658.3999999999999</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:M8" si="25">SUM(L5:L7)</f>
+        <f t="shared" ref="L8:M8" si="24">SUM(L5:L7)</f>
         <v>1673.8</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1989</v>
       </c>
       <c r="N8" s="1">
@@ -1264,19 +1274,19 @@
         <v>2386.7999999999997</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:R8" si="26">N8*1.2</f>
+        <f t="shared" ref="O8:R8" si="25">N8*1.2</f>
         <v>2864.1599999999994</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3436.9919999999993</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4124.3903999999993</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4949.2684799999988</v>
       </c>
       <c r="S8" s="1">
@@ -1284,25 +1294,25 @@
         <v>5444.1953279999989</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" ref="T8:W8" si="27">S8*1.1</f>
+        <f t="shared" ref="T8:W8" si="26">S8*1.1</f>
         <v>5988.6148607999994</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>6587.4763468800002</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>7246.2239815680005</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>7970.8463797248014</v>
       </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <v>379.5</v>
@@ -1311,73 +1321,73 @@
         <v>356</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:I9" si="28">G4-G8</f>
+        <f t="shared" ref="G9:I9" si="27">G4-G8</f>
         <v>938</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="27"/>
+        <v>1022.4200000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="27"/>
+        <v>1114.4378000000002</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:R9" si="28">K4-K8</f>
+        <v>-161.09999999999991</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="28"/>
-        <v>1022.4200000000001</v>
-      </c>
-      <c r="I9" s="1">
+        <v>120.10000000000014</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="28"/>
-        <v>1114.4378000000002</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" ref="K9:R9" si="29">K4-K8</f>
-        <v>-161.09999999999991</v>
-      </c>
-      <c r="L9" s="1">
+        <v>310.51000000000022</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="28"/>
+        <v>802.42607163663661</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="28"/>
+        <v>1967.5174985295048</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="28"/>
+        <v>4858.9982649751591</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="28"/>
+        <v>12633.509935249822</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="28"/>
+        <v>18746.402594043248</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" ref="S9:T9" si="29">S4-S8</f>
+        <v>26179.406881315201</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="29"/>
-        <v>120.10000000000014</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="29"/>
-        <v>310.51000000000022</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="29"/>
-        <v>802.42607163663661</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="29"/>
-        <v>1452.1385653530247</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="29"/>
-        <v>2404.6864783487845</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="29"/>
-        <v>3781.7372525972451</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="29"/>
-        <v>5750.8846850251139</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" ref="S9:T9" si="30">S4-S8</f>
-        <v>7343.9854737213745</v>
-      </c>
-      <c r="T9" s="1">
+        <v>36387.012099682368</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" ref="U9:W9" si="30">U4-U8</f>
+        <v>50195.863780166372</v>
+      </c>
+      <c r="V9" s="1">
         <f t="shared" si="30"/>
-        <v>9357.2021012656478</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" ref="U9:W9" si="31">U4-U8</f>
-        <v>11827.504007598774</v>
-      </c>
-      <c r="V9" s="1">
-        <f t="shared" si="31"/>
-        <v>14851.75244380653</v>
+        <v>68843.451788674138</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="31"/>
-        <v>18546.725330724636</v>
+        <f t="shared" si="30"/>
+        <v>93989.319152399694</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1">
         <v>20.3</v>
@@ -1389,49 +1399,49 @@
         <v>196.8</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" ref="N10:W10" si="32">M32*$Z$19</f>
-        <v>199.15599999999998</v>
+        <f>M33*$Z$19</f>
+        <v>298.73399999999998</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="32"/>
-        <v>235.34519623622822</v>
+        <f>N33*$Z$19</f>
+        <v>358.51449995434228</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="32"/>
-        <v>296.76888442271274</v>
+        <f>O33*$Z$19</f>
+        <v>485.89789491065062</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="32"/>
-        <v>395.49997039030382</v>
+        <f>P33*$Z$19</f>
+        <v>779.91245586274727</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="32"/>
-        <v>548.53300410002157</v>
+        <f>Q33*$Z$19</f>
+        <v>1430.8944636828703</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="32"/>
-        <v>779.65538600264028</v>
+        <f>R33*$Z$19</f>
+        <v>2410.5916770965323</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="32"/>
-        <v>1077.9022186927259</v>
+        <f>S33*$Z$19</f>
+        <v>3799.1369892075963</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="32"/>
-        <v>1461.2038752099584</v>
+        <f>T33*$Z$19</f>
+        <v>5751.2459309216256</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="32"/>
-        <v>1949.5110410155119</v>
+        <f>U33*$Z$19</f>
+        <v>8469.3281798344196</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="32"/>
-        <v>2567.0730801323366</v>
+        <f>V33*$Z$19</f>
+        <v>12225.77253042739</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1">
         <v>-220</v>
@@ -1447,129 +1457,129 @@
         <v>-18.18</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:R11" si="33">N11*1.01</f>
+        <f t="shared" ref="O11:R11" si="31">N11*1.01</f>
         <v>-18.361799999999999</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-18.545417999999998</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-18.730872179999999</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-18.9181809018</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11" si="34">R11*1.01</f>
+        <f t="shared" ref="S11" si="32">R11*1.01</f>
         <v>-19.107362710817998</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11" si="35">S11*1.01</f>
+        <f t="shared" ref="T11" si="33">S11*1.01</f>
         <v>-19.29843633792618</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11" si="36">T11*1.01</f>
+        <f t="shared" ref="U11" si="34">T11*1.01</f>
         <v>-19.491420701305444</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" ref="V11" si="37">U11*1.01</f>
+        <f t="shared" ref="V11" si="35">U11*1.01</f>
         <v>-19.6863349083185</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" ref="W11" si="38">V11*1.01</f>
+        <f t="shared" ref="W11" si="36">V11*1.01</f>
         <v>-19.883198257401684</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
         <f>F9+SUM(F10:F11)</f>
         <v>356</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:I12" si="39">G9+SUM(G10:G11)</f>
+        <f t="shared" ref="G12:I12" si="37">G9+SUM(G10:G11)</f>
         <v>938</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="37"/>
+        <v>1022.4200000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="37"/>
+        <v>1114.4378000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12:R12" si="38">K9+SUM(K10:K11)</f>
+        <v>-360.7999999999999</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="38"/>
+        <v>237.20000000000013</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="38"/>
+        <v>489.31000000000023</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="38"/>
+        <v>1082.9800716366367</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="38"/>
+        <v>2307.6701984838469</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="38"/>
+        <v>5326.3507418858098</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="38"/>
+        <v>13394.69151893257</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="38"/>
+        <v>20158.378876824318</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" ref="S12:T12" si="39">S9+SUM(S10:S11)</f>
+        <v>28570.891195700915</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="39"/>
-        <v>1022.4200000000001</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="39"/>
-        <v>1114.4378000000002</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" ref="K12:R12" si="40">K9+SUM(K10:K11)</f>
-        <v>-360.7999999999999</v>
-      </c>
-      <c r="L12" s="1">
+        <v>40166.850652552035</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" ref="U12:W12" si="40">U9+SUM(U10:U11)</f>
+        <v>55927.618290386694</v>
+      </c>
+      <c r="V12" s="1">
         <f t="shared" si="40"/>
-        <v>237.20000000000013</v>
-      </c>
-      <c r="M12" s="1">
+        <v>77293.093633600234</v>
+      </c>
+      <c r="W12" s="1">
         <f t="shared" si="40"/>
-        <v>489.31000000000023</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="40"/>
-        <v>983.40207163663661</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="40"/>
-        <v>1669.1219615892528</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="40"/>
-        <v>2682.9099447714971</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="40"/>
-        <v>4158.5063508075491</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="40"/>
-        <v>6280.4995082233354</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12:T12" si="41">S9+SUM(S10:S11)</f>
-        <v>8104.5334970131971</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="41"/>
-        <v>10415.805883620447</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" ref="U12:W12" si="42">U9+SUM(U10:U11)</f>
-        <v>13269.216462107428</v>
-      </c>
-      <c r="V12" s="1">
-        <f t="shared" si="42"/>
-        <v>16781.577149913723</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" si="42"/>
-        <v>21093.915212599572</v>
+        <v>106195.20848456968</v>
       </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1">
-        <f>G24*G12</f>
+        <f>G25*G12</f>
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:I13" si="43">H24*H12</f>
+        <f t="shared" ref="H13:I13" si="41">H25*H12</f>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
@@ -1582,44 +1592,44 @@
         <v>21.2</v>
       </c>
       <c r="N13" s="1">
-        <f>N24*N12</f>
-        <v>78.672165730930928</v>
+        <f>N25*N12</f>
+        <v>86.638405730930941</v>
       </c>
       <c r="O13" s="1">
-        <f>O24*O12</f>
-        <v>133.52975692714023</v>
+        <f>O25*O12</f>
+        <v>184.61361587870775</v>
       </c>
       <c r="P13" s="1">
-        <f>P24*P12</f>
-        <v>214.63279558171976</v>
+        <f>P25*P12</f>
+        <v>426.10805935086478</v>
       </c>
       <c r="Q13" s="1">
-        <f>Q24*Q12</f>
-        <v>332.68050806460394</v>
+        <f>Q25*Q12</f>
+        <v>2544.9913885971882</v>
       </c>
       <c r="R13" s="1">
-        <f>R24*R12</f>
-        <v>502.43996065786683</v>
+        <f>R25*R12</f>
+        <v>3830.0919865966202</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" ref="S13:T13" si="44">S24*S12</f>
-        <v>648.3626797610558</v>
+        <f t="shared" ref="S13:T13" si="42">S25*S12</f>
+        <v>5428.4693271831738</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="44"/>
-        <v>833.2644706896358</v>
+        <f t="shared" si="42"/>
+        <v>7631.7016239848872</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13" si="45">U24*U12</f>
-        <v>1061.5373169685943</v>
+        <f t="shared" ref="U13" si="43">U25*U12</f>
+        <v>10626.247475173472</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13" si="46">V24*V12</f>
-        <v>1342.5261719930979</v>
+        <f t="shared" ref="V13" si="44">V25*V12</f>
+        <v>14685.687790384045</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ref="W13" si="47">W24*W12</f>
-        <v>1687.5132170079657</v>
+        <f t="shared" ref="W13" si="45">W25*W12</f>
+        <v>20177.089612068241</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="15" x14ac:dyDescent="0.25">
@@ -1635,15 +1645,15 @@
         <v>356</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14:I14" si="48">G12-G13</f>
+        <f t="shared" ref="G14:I14" si="46">G12-G13</f>
         <v>938</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1022.4200000000001</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1114.4378000000002</v>
       </c>
       <c r="J14" s="3"/>
@@ -1661,263 +1671,263 @@
       </c>
       <c r="N14" s="3">
         <f>N12-N13</f>
-        <v>904.72990590570566</v>
+        <v>996.34166590570578</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14:W14" si="49">O12-O13</f>
-        <v>1535.5922046621126</v>
+        <f t="shared" ref="O14:W14" si="47">O12-O13</f>
+        <v>2123.0565826051393</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="49"/>
-        <v>2468.2771491897774</v>
+        <f t="shared" si="47"/>
+        <v>4900.2426825349448</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="49"/>
-        <v>3825.825842742945</v>
+        <f t="shared" si="47"/>
+        <v>10849.700130335383</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="49"/>
-        <v>5778.0595475654682</v>
+        <f t="shared" si="47"/>
+        <v>16328.286890227697</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="49"/>
-        <v>7456.1708172521412</v>
+        <f t="shared" si="47"/>
+        <v>23142.42186851774</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="49"/>
-        <v>9582.5414129308119</v>
+        <f t="shared" si="47"/>
+        <v>32535.149028567146</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="49"/>
-        <v>12207.679145138834</v>
+        <f t="shared" si="47"/>
+        <v>45301.370815213224</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="49"/>
-        <v>15439.050977920624</v>
+        <f t="shared" si="47"/>
+        <v>62607.405843216191</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="49"/>
-        <v>19406.401995591605</v>
+        <f t="shared" si="47"/>
+        <v>86018.118872501436</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" ref="X14:BC14" si="50">W14*(1+$Z$20)</f>
-        <v>19988.594055459354</v>
+        <f>W14*(1+$Z$20)</f>
+        <v>86878.300061226459</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="50"/>
-        <v>20588.251877123137</v>
+        <f>X14*(1+$Z$20)</f>
+        <v>87747.083061838726</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="50"/>
-        <v>21205.899433436833</v>
+        <f>Y14*(1+$Z$20)</f>
+        <v>88624.553892457116</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="50"/>
-        <v>21842.076416439937</v>
+        <f>Z14*(1+$Z$20)</f>
+        <v>89510.799431381689</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="50"/>
-        <v>22497.338708933137</v>
+        <f>AA14*(1+$Z$20)</f>
+        <v>90405.907425695506</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="50"/>
-        <v>23172.258870201131</v>
+        <f>AB14*(1+$Z$20)</f>
+        <v>91309.966499952468</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="50"/>
-        <v>23867.426636307166</v>
+        <f>AC14*(1+$Z$20)</f>
+        <v>92223.06616495199</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="50"/>
-        <v>24583.449435396382</v>
+        <f>AD14*(1+$Z$20)</f>
+        <v>93145.296826601509</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="50"/>
-        <v>25320.952918458275</v>
+        <f>AE14*(1+$Z$20)</f>
+        <v>94076.74979486753</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="50"/>
-        <v>26080.581506012026</v>
+        <f>AF14*(1+$Z$20)</f>
+        <v>95017.517292816206</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="50"/>
-        <v>26862.998951192389</v>
+        <f>AG14*(1+$Z$20)</f>
+        <v>95967.692465744374</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="50"/>
-        <v>27668.888919728161</v>
+        <f>AH14*(1+$Z$20)</f>
+        <v>96927.369390401815</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="50"/>
-        <v>28498.955587320008</v>
+        <f>AI14*(1+$Z$20)</f>
+        <v>97896.643084305833</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="50"/>
-        <v>29353.924254939608</v>
+        <f>AJ14*(1+$Z$20)</f>
+        <v>98875.609515148899</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="50"/>
-        <v>30234.541982587798</v>
+        <f>AK14*(1+$Z$20)</f>
+        <v>99864.365610300389</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="50"/>
-        <v>31141.578242065432</v>
+        <f>AL14*(1+$Z$20)</f>
+        <v>100863.00926640339</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="50"/>
-        <v>32075.825589327396</v>
+        <f>AM14*(1+$Z$20)</f>
+        <v>101871.63935906743</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="50"/>
-        <v>33038.100357007221</v>
+        <f>AN14*(1+$Z$20)</f>
+        <v>102890.3557526581</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" si="50"/>
-        <v>34029.243367717441</v>
+        <f>AO14*(1+$Z$20)</f>
+        <v>103919.25931018469</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="50"/>
-        <v>35050.120668748968</v>
+        <f>AP14*(1+$Z$20)</f>
+        <v>104958.45190328654</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="50"/>
-        <v>36101.624288811436</v>
+        <f>AQ14*(1+$Z$20)</f>
+        <v>106008.0364223194</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="50"/>
-        <v>37184.673017475783</v>
+        <f>AR14*(1+$Z$20)</f>
+        <v>107068.1167865426</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="50"/>
-        <v>38300.213208000059</v>
+        <f>AS14*(1+$Z$20)</f>
+        <v>108138.79795440803</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="50"/>
-        <v>39449.219604240061</v>
+        <f>AT14*(1+$Z$20)</f>
+        <v>109220.18593395212</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="50"/>
-        <v>40632.696192367264</v>
+        <f>AU14*(1+$Z$20)</f>
+        <v>110312.38779329164</v>
       </c>
       <c r="AW14" s="3">
-        <f t="shared" si="50"/>
-        <v>41851.67707813828</v>
+        <f>AV14*(1+$Z$20)</f>
+        <v>111415.51167122455</v>
       </c>
       <c r="AX14" s="3">
-        <f t="shared" si="50"/>
-        <v>43107.227390482432</v>
+        <f>AW14*(1+$Z$20)</f>
+        <v>112529.6667879368</v>
       </c>
       <c r="AY14" s="3">
-        <f t="shared" si="50"/>
-        <v>44400.444212196904</v>
+        <f>AX14*(1+$Z$20)</f>
+        <v>113654.96345581618</v>
       </c>
       <c r="AZ14" s="3">
-        <f t="shared" si="50"/>
-        <v>45732.457538562812</v>
+        <f>AY14*(1+$Z$20)</f>
+        <v>114791.51309037434</v>
       </c>
       <c r="BA14" s="3">
-        <f t="shared" si="50"/>
-        <v>47104.4312647197</v>
+        <f>AZ14*(1+$Z$20)</f>
+        <v>115939.42822127808</v>
       </c>
       <c r="BB14" s="3">
-        <f t="shared" si="50"/>
-        <v>48517.564202661291</v>
+        <f>BA14*(1+$Z$20)</f>
+        <v>117098.82250349087</v>
       </c>
       <c r="BC14" s="3">
-        <f t="shared" si="50"/>
-        <v>49973.091128741129</v>
+        <f>BB14*(1+$Z$20)</f>
+        <v>118269.81072852577</v>
       </c>
       <c r="BD14" s="3">
-        <f t="shared" ref="BD14:BZ14" si="51">BC14*(1+$Z$20)</f>
-        <v>51472.283862603363</v>
+        <f>BC14*(1+$Z$20)</f>
+        <v>119452.50883581104</v>
       </c>
       <c r="BE14" s="3">
-        <f t="shared" si="51"/>
-        <v>53016.452378481466</v>
+        <f>BD14*(1+$Z$20)</f>
+        <v>120647.03392416915</v>
       </c>
       <c r="BF14" s="3">
-        <f t="shared" si="51"/>
-        <v>54606.945949835914</v>
+        <f>BE14*(1+$Z$20)</f>
+        <v>121853.50426341085</v>
       </c>
       <c r="BG14" s="3">
-        <f t="shared" si="51"/>
-        <v>56245.154328330995</v>
+        <f>BF14*(1+$Z$20)</f>
+        <v>123072.03930604496</v>
       </c>
       <c r="BH14" s="3">
-        <f t="shared" si="51"/>
-        <v>57932.508958180922</v>
+        <f>BG14*(1+$Z$20)</f>
+        <v>124302.7596991054</v>
       </c>
       <c r="BI14" s="3">
-        <f t="shared" si="51"/>
-        <v>59670.484226926354</v>
+        <f>BH14*(1+$Z$20)</f>
+        <v>125545.78729609646</v>
       </c>
       <c r="BJ14" s="3">
-        <f t="shared" si="51"/>
-        <v>61460.598753734143</v>
+        <f>BI14*(1+$Z$20)</f>
+        <v>126801.24516905742</v>
       </c>
       <c r="BK14" s="3">
-        <f t="shared" si="51"/>
-        <v>63304.416716346168</v>
+        <f>BJ14*(1+$Z$20)</f>
+        <v>128069.257620748</v>
       </c>
       <c r="BL14" s="3">
-        <f t="shared" si="51"/>
-        <v>65203.549217836553</v>
+        <f>BK14*(1+$Z$20)</f>
+        <v>129349.95019695548</v>
       </c>
       <c r="BM14" s="3">
-        <f t="shared" si="51"/>
-        <v>67159.655694371657</v>
+        <f>BL14*(1+$Z$20)</f>
+        <v>130643.44969892503</v>
       </c>
       <c r="BN14" s="3">
-        <f t="shared" si="51"/>
-        <v>69174.445365202802</v>
+        <f>BM14*(1+$Z$20)</f>
+        <v>131949.88419591429</v>
       </c>
       <c r="BO14" s="3">
-        <f t="shared" si="51"/>
-        <v>71249.678726158891</v>
+        <f>BN14*(1+$Z$20)</f>
+        <v>133269.38303787343</v>
       </c>
       <c r="BP14" s="3">
-        <f t="shared" si="51"/>
-        <v>73387.169087943665</v>
+        <f>BO14*(1+$Z$20)</f>
+        <v>134602.07686825216</v>
       </c>
       <c r="BQ14" s="3">
-        <f t="shared" si="51"/>
-        <v>75588.78416058197</v>
+        <f>BP14*(1+$Z$20)</f>
+        <v>135948.09763693469</v>
       </c>
       <c r="BR14" s="3">
-        <f t="shared" si="51"/>
-        <v>77856.447685399427</v>
+        <f>BQ14*(1+$Z$20)</f>
+        <v>137307.57861330404</v>
       </c>
       <c r="BS14" s="3">
-        <f t="shared" si="51"/>
-        <v>80192.141115961407</v>
+        <f>BR14*(1+$Z$20)</f>
+        <v>138680.65439943707</v>
       </c>
       <c r="BT14" s="3">
-        <f t="shared" si="51"/>
-        <v>82597.905349440247</v>
+        <f>BS14*(1+$Z$20)</f>
+        <v>140067.46094343145</v>
       </c>
       <c r="BU14" s="3">
-        <f t="shared" si="51"/>
-        <v>85075.842509923459</v>
+        <f>BT14*(1+$Z$20)</f>
+        <v>141468.13555286577</v>
       </c>
       <c r="BV14" s="3">
-        <f t="shared" si="51"/>
-        <v>87628.117785221169</v>
+        <f>BU14*(1+$Z$20)</f>
+        <v>142882.81690839442</v>
       </c>
       <c r="BW14" s="3">
-        <f t="shared" si="51"/>
-        <v>90256.961318777801</v>
+        <f>BV14*(1+$Z$20)</f>
+        <v>144311.64507747837</v>
       </c>
       <c r="BX14" s="3">
-        <f t="shared" si="51"/>
-        <v>92964.670158341134</v>
+        <f>BW14*(1+$Z$20)</f>
+        <v>145754.76152825315</v>
       </c>
       <c r="BY14" s="3">
-        <f t="shared" si="51"/>
-        <v>95753.610263091367</v>
+        <f>BX14*(1+$Z$20)</f>
+        <v>147212.30914353568</v>
       </c>
       <c r="BZ14" s="3">
-        <f t="shared" si="51"/>
-        <v>98626.218570984114</v>
+        <f>BY14*(1+$Z$20)</f>
+        <v>148684.43223497103</v>
       </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.2">
@@ -1929,12 +1939,20 @@
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
     </row>
     <row r="18" spans="1:73" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1949,11 +1967,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="4" t="e">
-        <f t="shared" ref="H18:I18" si="52">H2/D2-1</f>
+        <f t="shared" ref="H18:I18" si="48">H2/D2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.34675262839879162</v>
       </c>
       <c r="J18" s="3"/>
@@ -1971,45 +1989,45 @@
         <v>0.3731836677717677</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18:W18" si="53">O2/N2-1</f>
+        <f t="shared" ref="O18:W18" si="49">O2/N2-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="49"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="49"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="49"/>
         <v>0.34000000000000008</v>
       </c>
-      <c r="P18" s="4">
-        <f t="shared" si="53"/>
+      <c r="T18" s="4">
+        <f t="shared" si="49"/>
         <v>0.34000000000000008</v>
       </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="53"/>
+      <c r="U18" s="4">
+        <f t="shared" si="49"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="49"/>
         <v>0.34000000000000008</v>
       </c>
-      <c r="R18" s="4">
-        <f t="shared" si="53"/>
+      <c r="W18" s="4">
+        <f t="shared" si="49"/>
         <v>0.34000000000000008</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="53"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="53"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="53"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="V18" s="4">
-        <f t="shared" si="53"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="W18" s="4">
-        <f t="shared" si="53"/>
-        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:73" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2024,32 +2042,65 @@
         <v>9.0697674418604546E-2</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" ref="H19:I19" si="54">H2/G2-1</f>
+        <f t="shared" ref="H19:I19" si="50">H2/G2-1</f>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="M19" s="4">
+        <f>M18/L18-1</f>
+        <v>0.71871377882909493</v>
+      </c>
+      <c r="N19" s="4">
+        <f>N18/M18-1</f>
+        <v>0.29638354534298683</v>
+      </c>
+      <c r="O19" s="4">
+        <f>O18/N18-1</f>
+        <v>0.3398228357243942</v>
+      </c>
+      <c r="P19" s="4">
+        <f>P18/O18-1</f>
+        <v>0.39999999999999947</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>Q18/P18-1</f>
+        <v>0.42857142857142905</v>
+      </c>
+      <c r="R19" s="4">
+        <f>R18/Q18-1</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="S19" s="4">
+        <f>S18/R18-1</f>
+        <v>-0.14999999999999958</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" ref="T19:W19" si="51">T18/S18-1</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
       <c r="Y19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z19" s="5">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.2">
@@ -2092,74 +2143,74 @@
         <v>0.20392759088692775</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:W20" si="55">O9/O2</f>
-        <v>0.27540652079780564</v>
+        <f t="shared" ref="O20:W20" si="52">O9/O2</f>
+        <v>0.33334834421538767</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.34034535078370187</v>
+        <f t="shared" si="52"/>
+        <v>0.48425879981648462</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.39943665334639089</v>
+        <f t="shared" si="52"/>
+        <v>0.62954214275120657</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.45330073545136418</v>
+        <f t="shared" si="52"/>
+        <v>0.66725323131086822</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.48239447764889076</v>
+        <f t="shared" si="52"/>
+        <v>0.69538889449561447</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.5121949378448164</v>
+        <f t="shared" si="52"/>
+        <v>0.72128939100386258</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.53951202635774831</v>
+        <f t="shared" si="52"/>
+        <v>0.74255099261511104</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.56455269082793591</v>
+        <f t="shared" si="52"/>
+        <v>0.76000454617658364</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="55"/>
-        <v>0.58750663325894126</v>
+        <f t="shared" si="52"/>
+        <v>0.77433209014495685</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Z20" s="5">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="e">
-        <f t="shared" ref="B21:G21" si="56">B4/B2-1</f>
+        <f t="shared" ref="B21:G21" si="53">B4/B2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C21" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D21" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
@@ -2181,19 +2232,19 @@
         <v>0.81050605478974014</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" ref="O21:R21" si="57">N21*1.01</f>
+        <f t="shared" ref="O21:R21" si="54">N21*1.01</f>
         <v>0.81861111533763753</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>0.82679722649101395</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>0.83506519875592411</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>0.84341585074348335</v>
       </c>
       <c r="S21" s="6">
@@ -2215,511 +2266,559 @@
         <v>20</v>
       </c>
       <c r="Z21" s="5">
-        <v>8.5000000000000006E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="K22" s="6">
+        <f>K8/K2</f>
+        <v>0.87018574876692201</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" ref="L22:W22" si="55">L8/L2</f>
+        <v>0.75226966292134834</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.69411969987785727</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.60657846390281234</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.4852627711222498</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.34253842667452933</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.2055230560047176</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.17616261943261508</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.1446111055043855</v>
+      </c>
+      <c r="T22" s="6">
+        <f t="shared" si="55"/>
+        <v>0.11871060899613736</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="55"/>
+        <v>9.7449007384888889E-2</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="55"/>
+        <v>7.999545382341626E-2</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="55"/>
+        <v>6.5667909855043199E-2</v>
+      </c>
       <c r="Y22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Z22" s="1">
-        <f>NPV(Z21,N29:BZ29)+Sheet1!D5-Sheet1!D6</f>
-        <v>257220.41037733594</v>
+        <f>NPV(Z21,N30:BZ30)+Sheet1!D5-Sheet1!D6</f>
+        <v>570306.50531170191</v>
       </c>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="9">
+        <f>Z22/Sheet1!D3</f>
+        <v>241.66451488052593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="e">
+      <c r="B24" s="1" t="e">
         <f>B20+B18</f>
         <v>#REF!</v>
       </c>
-      <c r="K23" s="6">
-        <f t="shared" ref="K23:N23" si="58">K20+K18</f>
+      <c r="K24" s="6">
+        <f t="shared" ref="K24:N24" si="56">K20+K18</f>
         <v>-8.4531430370448066E-2</v>
       </c>
-      <c r="L23" s="6">
-        <f t="shared" si="58"/>
+      <c r="L24" s="6">
+        <f t="shared" si="56"/>
         <v>0.2214662467382244</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" si="58"/>
+      <c r="M24" s="6">
+        <f t="shared" si="56"/>
         <v>0.39622671102754792</v>
       </c>
-      <c r="N23" s="6">
-        <f t="shared" si="58"/>
+      <c r="N24" s="6">
+        <f t="shared" si="56"/>
         <v>0.5771112586586955</v>
       </c>
-      <c r="O23" s="6">
-        <f t="shared" ref="O23:W23" si="59">O20+O18</f>
-        <v>0.61540652079780567</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.68034535078370195</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.73943665334639097</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.79330073545136426</v>
-      </c>
-      <c r="S23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.68239447764889072</v>
-      </c>
-      <c r="T23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.71219493784481636</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.73951202635774826</v>
-      </c>
-      <c r="V23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.76455269082793587</v>
-      </c>
-      <c r="W23" s="6">
-        <f t="shared" si="59"/>
-        <v>0.78750663325894121</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="9">
-        <f>Z22/Sheet1!D3</f>
-        <v>108.99585593405509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="O24" s="6">
+        <f t="shared" ref="O24:W24" si="57">O20+O18</f>
+        <v>0.83334834421538773</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.1842587998164844</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.6295421427512067</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.0672532313108682</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.0353888944956147</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.0612893910038625</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.0825509926151109</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.1000045461765837</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="57"/>
+        <v>1.1143320901449569</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="6">
+        <f>Z23/Sheet1!D2-1</f>
+        <v>1.0307942426934953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="6">
         <f>K13/K12</f>
         <v>-2.7716186252771627E-2</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L25" s="6">
         <f>L13/L12</f>
         <v>8.3052276559865038E-2</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M25" s="6">
         <f>M13/M12</f>
         <v>4.3326316649976479E-2</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N25" s="6">
         <v>0.08</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O25" s="6">
         <v>0.08</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P25" s="6">
         <v>0.08</v>
       </c>
-      <c r="Q24" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z24" s="6">
-        <f>Z23/Sheet1!D2-1</f>
-        <v>-8.4068437528948881E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="6">
-        <f>K29/K2</f>
+      <c r="Q25" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="6">
+        <f>K30/K2</f>
         <v>-6.1339070206737345E-2</v>
       </c>
-      <c r="L25" s="6">
-        <f>L29/L2</f>
+      <c r="L26" s="6">
+        <f>L30/L2</f>
         <v>-0.8984269662921347</v>
       </c>
-      <c r="M25" s="6">
-        <f>M29/M2</f>
+      <c r="M26" s="6">
+        <f>M30/M2</f>
         <v>0.38680858488919906</v>
       </c>
-      <c r="N25" s="6">
-        <f>N29/N2</f>
+      <c r="N26" s="6">
+        <f>N30/N2</f>
         <v>0.40662206395361983</v>
       </c>
-      <c r="O25" s="6">
-        <f>N25*1.08</f>
-        <v>0.43915182906990946</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" ref="P25:W25" si="60">O25*1.08</f>
-        <v>0.47428397539550227</v>
-      </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="60"/>
-        <v>0.51222669342714244</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="60"/>
-        <v>0.55320482890131384</v>
-      </c>
-      <c r="S25" s="6">
-        <f t="shared" si="60"/>
-        <v>0.59746121521341899</v>
-      </c>
-      <c r="T25" s="6">
-        <f t="shared" si="60"/>
-        <v>0.64525811243049258</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="60"/>
-        <v>0.69687876142493199</v>
-      </c>
-      <c r="V25" s="6">
-        <f t="shared" si="60"/>
-        <v>0.75262906233892657</v>
-      </c>
-      <c r="W25" s="6">
-        <f t="shared" si="60"/>
-        <v>0.81283938732604077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="M26" s="6"/>
+      <c r="O26" s="6">
+        <f>N26*1.1</f>
+        <v>0.44728427034898183</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" ref="P26:U26" si="58">O26*1.1</f>
+        <v>0.49201269738388004</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="58"/>
+        <v>0.5412139671222681</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="58"/>
+        <v>0.59533536383449492</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="58"/>
+        <v>0.65486890021794442</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="58"/>
+        <v>0.72035579023973895</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="58"/>
+        <v>0.7923913692637129</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="27" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="1">
-        <v>223.7</v>
-      </c>
-      <c r="L27" s="1">
-        <v>712.2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1153.8</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1">
+        <v>223.7</v>
+      </c>
+      <c r="L28" s="1">
+        <v>712.2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1153.8</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K29" s="1">
         <v>340.6</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L29" s="1">
         <v>2711.2</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M29" s="1">
         <v>45.4</v>
       </c>
     </row>
-    <row r="29" spans="1:73" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:73" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="3">
         <v>517</v>
       </c>
-      <c r="K29" s="3">
-        <f>K27-K28</f>
+      <c r="K30" s="3">
+        <f>K28-K29</f>
         <v>-116.90000000000003</v>
       </c>
-      <c r="L29" s="3">
-        <f t="shared" ref="L29:M29" si="61">L27-L28</f>
+      <c r="L30" s="3">
+        <f t="shared" ref="L30:M30" si="59">L28-L29</f>
         <v>-1998.9999999999998</v>
       </c>
-      <c r="M29" s="3">
-        <f t="shared" si="61"/>
+      <c r="M30" s="3">
+        <f t="shared" si="59"/>
         <v>1108.3999999999999</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N30" s="3">
         <v>1600</v>
       </c>
-      <c r="O29" s="3">
-        <f>O25*O2</f>
-        <v>2315.5200000000004</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" ref="P29:W29" si="62">P25*P2</f>
-        <v>3351.0205440000013</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="62"/>
-        <v>4849.596931276802</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="62"/>
-        <v>7018.3366789437887</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="62"/>
-        <v>9095.7643359111498</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" si="62"/>
-        <v>11788.110579340851</v>
-      </c>
-      <c r="U29" s="3">
-        <f t="shared" si="62"/>
-        <v>15277.391310825744</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="62"/>
-        <v>19799.499138830164</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="62"/>
-        <v>25660.150883923896</v>
-      </c>
-      <c r="X29" s="3">
-        <f t="shared" ref="X29:BC29" si="63">W29*(1+$Z$20)</f>
-        <v>26429.955410441613</v>
-      </c>
-      <c r="Y29" s="3">
-        <f t="shared" si="63"/>
-        <v>27222.854072754861</v>
-      </c>
-      <c r="Z29" s="3">
-        <f t="shared" si="63"/>
-        <v>28039.539694937506</v>
-      </c>
-      <c r="AA29" s="3">
-        <f t="shared" si="63"/>
-        <v>28880.725885785632</v>
-      </c>
-      <c r="AB29" s="3">
-        <f t="shared" si="63"/>
-        <v>29747.147662359203</v>
-      </c>
-      <c r="AC29" s="3">
-        <f t="shared" si="63"/>
-        <v>30639.562092229979</v>
-      </c>
-      <c r="AD29" s="3">
-        <f t="shared" si="63"/>
-        <v>31558.748954996878</v>
-      </c>
-      <c r="AE29" s="3">
-        <f t="shared" si="63"/>
-        <v>32505.511423646785</v>
-      </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="63"/>
-        <v>33480.676766356191</v>
-      </c>
-      <c r="AG29" s="3">
-        <f t="shared" si="63"/>
-        <v>34485.097069346877</v>
-      </c>
-      <c r="AH29" s="3">
-        <f t="shared" si="63"/>
-        <v>35519.649981427283</v>
-      </c>
-      <c r="AI29" s="3">
-        <f t="shared" si="63"/>
-        <v>36585.239480870099</v>
-      </c>
-      <c r="AJ29" s="3">
-        <f t="shared" si="63"/>
-        <v>37682.796665296206</v>
-      </c>
-      <c r="AK29" s="3">
-        <f t="shared" si="63"/>
-        <v>38813.280565255096</v>
-      </c>
-      <c r="AL29" s="3">
-        <f t="shared" si="63"/>
-        <v>39977.678982212747</v>
-      </c>
-      <c r="AM29" s="3">
-        <f t="shared" si="63"/>
-        <v>41177.009351679131</v>
-      </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="63"/>
-        <v>42412.319632229504</v>
-      </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="63"/>
-        <v>43684.689221196393</v>
-      </c>
-      <c r="AP29" s="3">
-        <f t="shared" si="63"/>
-        <v>44995.229897832287</v>
-      </c>
-      <c r="AQ29" s="3">
-        <f t="shared" si="63"/>
-        <v>46345.08679476726</v>
-      </c>
-      <c r="AR29" s="3">
-        <f t="shared" si="63"/>
-        <v>47735.43939861028</v>
-      </c>
-      <c r="AS29" s="3">
-        <f t="shared" si="63"/>
-        <v>49167.502580568587</v>
-      </c>
-      <c r="AT29" s="3">
-        <f t="shared" si="63"/>
-        <v>50642.527657985644</v>
-      </c>
-      <c r="AU29" s="3">
-        <f t="shared" si="63"/>
-        <v>52161.803487725214</v>
-      </c>
-      <c r="AV29" s="3">
-        <f t="shared" si="63"/>
-        <v>53726.657592356969</v>
-      </c>
-      <c r="AW29" s="3">
-        <f t="shared" si="63"/>
-        <v>55338.45732012768</v>
-      </c>
-      <c r="AX29" s="3">
-        <f t="shared" si="63"/>
-        <v>56998.611039731513</v>
-      </c>
-      <c r="AY29" s="3">
-        <f t="shared" si="63"/>
-        <v>58708.569370923462</v>
-      </c>
-      <c r="AZ29" s="3">
-        <f t="shared" si="63"/>
-        <v>60469.826452051166</v>
-      </c>
-      <c r="BA29" s="3">
-        <f t="shared" si="63"/>
-        <v>62283.921245612699</v>
-      </c>
-      <c r="BB29" s="3">
-        <f t="shared" si="63"/>
-        <v>64152.438882981085</v>
-      </c>
-      <c r="BC29" s="3">
-        <f t="shared" si="63"/>
-        <v>66077.012049470519</v>
-      </c>
-      <c r="BD29" s="3">
-        <f t="shared" ref="BD29:BU29" si="64">BC29*(1+$Z$20)</f>
-        <v>68059.322410954643</v>
-      </c>
-      <c r="BE29" s="3">
-        <f t="shared" si="64"/>
-        <v>70101.102083283287</v>
-      </c>
-      <c r="BF29" s="3">
-        <f t="shared" si="64"/>
-        <v>72204.135145781795</v>
-      </c>
-      <c r="BG29" s="3">
-        <f t="shared" si="64"/>
-        <v>74370.259200155255</v>
-      </c>
-      <c r="BH29" s="3">
-        <f t="shared" si="64"/>
-        <v>76601.366976159916</v>
-      </c>
-      <c r="BI29" s="3">
-        <f t="shared" si="64"/>
-        <v>78899.407985444719</v>
-      </c>
-      <c r="BJ29" s="3">
-        <f t="shared" si="64"/>
-        <v>81266.390225008057</v>
-      </c>
-      <c r="BK29" s="3">
-        <f t="shared" si="64"/>
-        <v>83704.381931758297</v>
-      </c>
-      <c r="BL29" s="3">
-        <f t="shared" si="64"/>
-        <v>86215.51338971105</v>
-      </c>
-      <c r="BM29" s="3">
-        <f t="shared" si="64"/>
-        <v>88801.978791402391</v>
-      </c>
-      <c r="BN29" s="3">
-        <f t="shared" si="64"/>
-        <v>91466.038155144459</v>
-      </c>
-      <c r="BO29" s="3">
-        <f t="shared" si="64"/>
-        <v>94210.019299798791</v>
-      </c>
-      <c r="BP29" s="3">
-        <f t="shared" si="64"/>
-        <v>97036.319878792754</v>
-      </c>
-      <c r="BQ29" s="3">
-        <f t="shared" si="64"/>
-        <v>99947.409475156543</v>
-      </c>
-      <c r="BR29" s="3">
-        <f t="shared" si="64"/>
-        <v>102945.83175941125</v>
-      </c>
-      <c r="BS29" s="3">
-        <f t="shared" si="64"/>
-        <v>106034.20671219358</v>
-      </c>
-      <c r="BT29" s="3">
-        <f t="shared" si="64"/>
-        <v>109215.23291355939</v>
-      </c>
-      <c r="BU29" s="3">
-        <f t="shared" si="64"/>
-        <v>112491.68990096617</v>
-      </c>
-    </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="O30" s="3">
+        <f>O26*O2</f>
+        <v>2640</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" ref="P30:W30" si="60">P26*P2</f>
+        <v>4936.8</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="60"/>
+        <v>10860.960000000001</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="60"/>
+        <v>16725.878400000001</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="60"/>
+        <v>24653.944761600003</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="60"/>
+        <v>36339.914578598415</v>
+      </c>
+      <c r="U30" s="3">
+        <f t="shared" si="60"/>
+        <v>53565.03408885406</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" si="60"/>
+        <v>72466.357876421098</v>
+      </c>
+      <c r="W30" s="3">
+        <f t="shared" si="60"/>
+        <v>97104.919554404274</v>
+      </c>
+      <c r="X30" s="3">
+        <f>W30*(1+$Z$20)</f>
+        <v>98075.968749948312</v>
+      </c>
+      <c r="Y30" s="3">
+        <f>X30*(1+$Z$20)</f>
+        <v>99056.728437447789</v>
+      </c>
+      <c r="Z30" s="3">
+        <f>Y30*(1+$Z$20)</f>
+        <v>100047.29572182227</v>
+      </c>
+      <c r="AA30" s="3">
+        <f>Z30*(1+$Z$20)</f>
+        <v>101047.7686790405</v>
+      </c>
+      <c r="AB30" s="3">
+        <f>AA30*(1+$Z$20)</f>
+        <v>102058.2463658309</v>
+      </c>
+      <c r="AC30" s="3">
+        <f>AB30*(1+$Z$20)</f>
+        <v>103078.82882948921</v>
+      </c>
+      <c r="AD30" s="3">
+        <f>AC30*(1+$Z$20)</f>
+        <v>104109.6171177841</v>
+      </c>
+      <c r="AE30" s="3">
+        <f>AD30*(1+$Z$20)</f>
+        <v>105150.71328896194</v>
+      </c>
+      <c r="AF30" s="3">
+        <f>AE30*(1+$Z$20)</f>
+        <v>106202.22042185155</v>
+      </c>
+      <c r="AG30" s="3">
+        <f>AF30*(1+$Z$20)</f>
+        <v>107264.24262607007</v>
+      </c>
+      <c r="AH30" s="3">
+        <f>AG30*(1+$Z$20)</f>
+        <v>108336.88505233078</v>
+      </c>
+      <c r="AI30" s="3">
+        <f>AH30*(1+$Z$20)</f>
+        <v>109420.25390285409</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f>AI30*(1+$Z$20)</f>
+        <v>110514.45644188263</v>
+      </c>
+      <c r="AK30" s="3">
+        <f>AJ30*(1+$Z$20)</f>
+        <v>111619.60100630145</v>
+      </c>
+      <c r="AL30" s="3">
+        <f>AK30*(1+$Z$20)</f>
+        <v>112735.79701636446</v>
+      </c>
+      <c r="AM30" s="3">
+        <f>AL30*(1+$Z$20)</f>
+        <v>113863.15498652811</v>
+      </c>
+      <c r="AN30" s="3">
+        <f>AM30*(1+$Z$20)</f>
+        <v>115001.7865363934</v>
+      </c>
+      <c r="AO30" s="3">
+        <f>AN30*(1+$Z$20)</f>
+        <v>116151.80440175733</v>
+      </c>
+      <c r="AP30" s="3">
+        <f>AO30*(1+$Z$20)</f>
+        <v>117313.3224457749</v>
+      </c>
+      <c r="AQ30" s="3">
+        <f>AP30*(1+$Z$20)</f>
+        <v>118486.45567023265</v>
+      </c>
+      <c r="AR30" s="3">
+        <f>AQ30*(1+$Z$20)</f>
+        <v>119671.32022693499</v>
+      </c>
+      <c r="AS30" s="3">
+        <f>AR30*(1+$Z$20)</f>
+        <v>120868.03342920434</v>
+      </c>
+      <c r="AT30" s="3">
+        <f>AS30*(1+$Z$20)</f>
+        <v>122076.71376349639</v>
+      </c>
+      <c r="AU30" s="3">
+        <f>AT30*(1+$Z$20)</f>
+        <v>123297.48090113135</v>
+      </c>
+      <c r="AV30" s="3">
+        <f>AU30*(1+$Z$20)</f>
+        <v>124530.45571014266</v>
+      </c>
+      <c r="AW30" s="3">
+        <f>AV30*(1+$Z$20)</f>
+        <v>125775.76026724408</v>
+      </c>
+      <c r="AX30" s="3">
+        <f>AW30*(1+$Z$20)</f>
+        <v>127033.51786991653</v>
+      </c>
+      <c r="AY30" s="3">
+        <f>AX30*(1+$Z$20)</f>
+        <v>128303.8530486157</v>
+      </c>
+      <c r="AZ30" s="3">
+        <f>AY30*(1+$Z$20)</f>
+        <v>129586.89157910185</v>
+      </c>
+      <c r="BA30" s="3">
+        <f>AZ30*(1+$Z$20)</f>
+        <v>130882.76049489288</v>
+      </c>
+      <c r="BB30" s="3">
+        <f>BA30*(1+$Z$20)</f>
+        <v>132191.58809984181</v>
+      </c>
+      <c r="BC30" s="3">
+        <f>BB30*(1+$Z$20)</f>
+        <v>133513.50398084024</v>
+      </c>
+      <c r="BD30" s="3">
+        <f>BC30*(1+$Z$20)</f>
+        <v>134848.63902064864</v>
+      </c>
+      <c r="BE30" s="3">
+        <f>BD30*(1+$Z$20)</f>
+        <v>136197.12541085514</v>
+      </c>
+      <c r="BF30" s="3">
+        <f>BE30*(1+$Z$20)</f>
+        <v>137559.0966649637</v>
+      </c>
+      <c r="BG30" s="3">
+        <f>BF30*(1+$Z$20)</f>
+        <v>138934.68763161334</v>
+      </c>
+      <c r="BH30" s="3">
+        <f>BG30*(1+$Z$20)</f>
+        <v>140324.03450792946</v>
+      </c>
+      <c r="BI30" s="3">
+        <f>BH30*(1+$Z$20)</f>
+        <v>141727.27485300877</v>
+      </c>
+      <c r="BJ30" s="3">
+        <f>BI30*(1+$Z$20)</f>
+        <v>143144.54760153886</v>
+      </c>
+      <c r="BK30" s="3">
+        <f>BJ30*(1+$Z$20)</f>
+        <v>144575.99307755425</v>
+      </c>
+      <c r="BL30" s="3">
+        <f>BK30*(1+$Z$20)</f>
+        <v>146021.75300832978</v>
+      </c>
+      <c r="BM30" s="3">
+        <f>BL30*(1+$Z$20)</f>
+        <v>147481.97053841306</v>
+      </c>
+      <c r="BN30" s="3">
+        <f>BM30*(1+$Z$20)</f>
+        <v>148956.79024379721</v>
+      </c>
+      <c r="BO30" s="3">
+        <f>BN30*(1+$Z$20)</f>
+        <v>150446.35814623517</v>
+      </c>
+      <c r="BP30" s="3">
+        <f>BO30*(1+$Z$20)</f>
+        <v>151950.82172769753</v>
+      </c>
+      <c r="BQ30" s="3">
+        <f>BP30*(1+$Z$20)</f>
+        <v>153470.32994497451</v>
+      </c>
+      <c r="BR30" s="3">
+        <f>BQ30*(1+$Z$20)</f>
+        <v>155005.03324442427</v>
+      </c>
+      <c r="BS30" s="3">
+        <f>BR30*(1+$Z$20)</f>
+        <v>156555.08357686852</v>
+      </c>
+      <c r="BT30" s="3">
+        <f>BS30*(1+$Z$20)</f>
+        <v>158120.63441263721</v>
+      </c>
+      <c r="BU30" s="3">
+        <f>BT30*(1+$Z$20)</f>
+        <v>159701.84075676359</v>
+      </c>
     </row>
     <row r="31" spans="1:73" x14ac:dyDescent="0.2">
       <c r="K31" s="6"/>
@@ -2737,72 +2836,87 @@
       <c r="W31" s="6"/>
     </row>
     <row r="32" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="1">
-        <f>F34-F36</f>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="1">
+        <f>F35-F37</f>
         <v>0</v>
       </c>
-      <c r="M32" s="1">
-        <f>M34-M36</f>
+      <c r="M33" s="1">
+        <f>M35-M37</f>
         <v>4978.8999999999996</v>
       </c>
-      <c r="N32" s="1">
-        <f>M32+N14</f>
-        <v>5883.6299059057055</v>
-      </c>
-      <c r="O32" s="1">
-        <f t="shared" ref="O32:R32" si="65">N32+O14</f>
-        <v>7419.2221105678182</v>
-      </c>
-      <c r="P32" s="1">
-        <f t="shared" si="65"/>
-        <v>9887.4992597575947</v>
-      </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="65"/>
-        <v>13713.325102500539</v>
-      </c>
-      <c r="R32" s="1">
-        <f t="shared" si="65"/>
-        <v>19491.384650066007</v>
-      </c>
-      <c r="S32" s="1">
-        <f t="shared" ref="S32:W32" si="66">R32+S14</f>
-        <v>26947.555467318147</v>
-      </c>
-      <c r="T32" s="1">
-        <f t="shared" si="66"/>
-        <v>36530.096880248959</v>
-      </c>
-      <c r="U32" s="1">
-        <f t="shared" si="66"/>
-        <v>48737.776025387793</v>
-      </c>
-      <c r="V32" s="1">
-        <f t="shared" si="66"/>
-        <v>64176.827003308419</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" si="66"/>
-        <v>83583.228998900027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="N33" s="1">
+        <f>M33+N14</f>
+        <v>5975.2416659057053</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" ref="O33:R33" si="61">N33+O14</f>
+        <v>8098.2982485108441</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="61"/>
+        <v>12998.540931045789</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="61"/>
+        <v>23848.241061381173</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="61"/>
+        <v>40176.52795160887</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" ref="S33:W33" si="62">R33+S14</f>
+        <v>63318.949820126611</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="62"/>
+        <v>95854.098848693757</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="62"/>
+        <v>141155.46966390699</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="62"/>
+        <v>203762.87550712319</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="62"/>
+        <v>289780.99437962461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M35" s="1">
         <f>2098+3131</f>
         <v>5229</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M37" s="1">
         <f>39.8+1.5+195.2+13.6</f>
         <v>250.1</v>
       </c>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56649F06-F1E1-4855-9B27-E154DD2E82E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6F6EE-0A9F-4931-8D45-45B3FE416EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1260" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
+    <workbookView xWindow="4815" yWindow="615" windowWidth="20805" windowHeight="15015" activeTab="1" xr2:uid="{1048AAC9-095E-4978-9899-EC26626F8B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,6 +178,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,8 +247,8 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,10 +776,10 @@
   <dimension ref="A1:BZ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomRight" activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,40 +904,40 @@
         <v>3934.8578000000002</v>
       </c>
       <c r="O2" s="7">
-        <f>N2*1.34</f>
-        <v>5272.709452000001</v>
+        <f>N2*1.5</f>
+        <v>5902.2867000000006</v>
       </c>
       <c r="P2" s="7">
-        <f>O2*1.34</f>
-        <v>7065.4306656800018</v>
+        <f>O2*1.4</f>
+        <v>8263.2013800000004</v>
       </c>
       <c r="Q2" s="7">
-        <f>P2*1.34</f>
-        <v>9467.6770920112031</v>
+        <f t="shared" ref="Q2:W2" si="5">P2*1.4</f>
+        <v>11568.481932000001</v>
       </c>
       <c r="R2" s="7">
-        <f>Q2*1.34</f>
-        <v>12686.687303295013</v>
+        <f t="shared" si="5"/>
+        <v>16195.8747048</v>
       </c>
       <c r="S2" s="7">
-        <f>R2*1.34</f>
-        <v>17000.160986415318</v>
+        <f t="shared" si="5"/>
+        <v>22674.22458672</v>
       </c>
       <c r="T2" s="7">
-        <f t="shared" ref="T2:W2" si="5">S2*1.34</f>
-        <v>22780.215721796529</v>
+        <f t="shared" si="5"/>
+        <v>31743.914421407997</v>
       </c>
       <c r="U2" s="7">
         <f t="shared" si="5"/>
-        <v>30525.489067207349</v>
+        <v>44441.480189971197</v>
       </c>
       <c r="V2" s="7">
         <f t="shared" si="5"/>
-        <v>40904.155350057852</v>
+        <v>62218.072265959672</v>
       </c>
       <c r="W2" s="7">
         <f t="shared" si="5"/>
-        <v>54811.568169077524</v>
+        <v>87105.301172343534</v>
       </c>
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
@@ -956,39 +959,39 @@
       </c>
       <c r="O3" s="5">
         <f>O2*(1-O21)</f>
-        <v>956.41088664697656</v>
+        <v>1070.6092014704961</v>
       </c>
       <c r="P3" s="5">
         <f>P2*(1-P21)</f>
-        <v>1223.752187331218</v>
+        <v>1431.209397079281</v>
       </c>
       <c r="Q3" s="5">
         <f>Q2*(1-Q21)</f>
-        <v>1561.5494394139582</v>
+        <v>1908.0452681501031</v>
       </c>
       <c r="R3" s="5">
         <f>R2*(1-R21)</f>
-        <v>1986.534138269901</v>
+        <v>2536.0172621162455</v>
       </c>
       <c r="S3" s="5">
         <f t="shared" ref="S3:T3" si="6">S2*(1-S21)</f>
-        <v>2720.0257578264514</v>
+        <v>3627.8759338752006</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="6"/>
-        <v>3644.8345154874455</v>
+        <v>5079.0263074252807</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" ref="U3" si="7">U2*(1-U21)</f>
-        <v>4884.0782507531767</v>
+        <v>7110.6368303953932</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" ref="V3" si="8">V2*(1-V21)</f>
-        <v>6544.6648560092572</v>
+        <v>9954.8915625535501</v>
       </c>
       <c r="W3" s="5">
         <f t="shared" ref="W3" si="9">W2*(1-W21)</f>
-        <v>8769.8509070524051</v>
+        <v>13936.848187574968</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -1045,39 +1048,39 @@
       </c>
       <c r="O4" s="5">
         <f t="shared" si="11"/>
-        <v>4316.2985653530241</v>
+        <v>4831.6774985295042</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" si="11"/>
-        <v>5841.6784783487838</v>
+        <v>6831.9919829207192</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="11"/>
-        <v>7906.1276525972444</v>
+        <v>9660.4366638498977</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" si="11"/>
-        <v>10700.153165025113</v>
+        <v>13659.857442683755</v>
       </c>
       <c r="S4" s="5">
         <f t="shared" ref="S4:T4" si="12">S2-S3</f>
-        <v>14280.135228588866</v>
+        <v>19046.348652844797</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" si="12"/>
-        <v>19135.381206309085</v>
+        <v>26664.888113982717</v>
       </c>
       <c r="U4" s="5">
         <f t="shared" ref="U4:W4" si="13">U2-U3</f>
-        <v>25641.410816454172</v>
+        <v>37330.843359575803</v>
       </c>
       <c r="V4" s="5">
         <f t="shared" si="13"/>
-        <v>34359.490494048594</v>
+        <v>52263.18070340612</v>
       </c>
       <c r="W4" s="5">
         <f t="shared" si="13"/>
-        <v>46041.717262025122</v>
+        <v>73168.452984768563</v>
       </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.2">
@@ -1099,39 +1102,39 @@
       </c>
       <c r="O5" s="5">
         <f t="shared" ref="O5:R5" si="14">N5*(1+O18)</f>
-        <v>1633.4266901205378</v>
+        <v>1828.4627128214975</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" si="14"/>
-        <v>2188.7917647615209</v>
+        <v>2559.8477979500963</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="14"/>
-        <v>2932.9809647804382</v>
+        <v>3583.7869171301345</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="14"/>
-        <v>3930.1944928057874</v>
+        <v>5017.3016839821876</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" ref="S5:T5" si="15">R5*(1+S18)</f>
-        <v>5266.460620359755</v>
+        <v>7024.2223575750622</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="15"/>
-        <v>7057.0572312820723</v>
+        <v>9833.9113006050866</v>
       </c>
       <c r="U5" s="5">
         <f t="shared" ref="U5:W5" si="16">T5*(1+U18)</f>
-        <v>9456.4566899179772</v>
+        <v>13767.475820847123</v>
       </c>
       <c r="V5" s="5">
         <f t="shared" si="16"/>
-        <v>12671.651964490091</v>
+        <v>19274.46614918597</v>
       </c>
       <c r="W5" s="5">
         <f t="shared" si="16"/>
-        <v>16980.013632416722</v>
+        <v>26984.252608860355</v>
       </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.2">
@@ -1153,39 +1156,39 @@
       </c>
       <c r="O6" s="5">
         <f t="shared" ref="O6:R6" si="17">N6*(1+O18)</f>
-        <v>934.56957971411634</v>
+        <v>1046.1599772919212</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="17"/>
-        <v>1252.3232368169161</v>
+        <v>1464.6239682086896</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="17"/>
-        <v>1678.1131373346675</v>
+        <v>2050.4735554921654</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" si="17"/>
-        <v>2248.6716040284546</v>
+        <v>2870.6629776890313</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:T6" si="18">R6*(1+S18)</f>
-        <v>3013.2199493981293</v>
+        <v>4018.9281687646435</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="18"/>
-        <v>4037.7147321934935</v>
+        <v>5626.4994362705002</v>
       </c>
       <c r="U6" s="5">
         <f t="shared" ref="U6:W6" si="19">T6*(1+U18)</f>
-        <v>5410.5377411392819</v>
+        <v>7877.0992107787006</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" si="19"/>
-        <v>7250.1205731266382</v>
+        <v>11027.938895090179</v>
       </c>
       <c r="W6" s="5">
         <f t="shared" si="19"/>
-        <v>9715.161567989695</v>
+        <v>15439.114453126251</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -1207,39 +1210,39 @@
       </c>
       <c r="O7" s="5">
         <f t="shared" ref="O7:R7" si="20">N7*(1+O18)</f>
-        <v>1091.8952325307278</v>
+        <v>1222.2707826836504</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="20"/>
-        <v>1463.1396115911753</v>
+        <v>1711.1790957571104</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="20"/>
-        <v>1960.607079532175</v>
+        <v>2395.6507340599546</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="20"/>
-        <v>2627.2134865731146</v>
+        <v>3353.9110276839365</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" ref="S7:T7" si="21">R7*(1+S18)</f>
-        <v>3520.4660720079737</v>
+        <v>4695.4754387575103</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="21"/>
-        <v>4717.4245364906847</v>
+        <v>6573.6656142605143</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" ref="U7:W7" si="22">T7*(1+U18)</f>
-        <v>6321.3488788975183</v>
+        <v>9203.1318599647202</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="22"/>
-        <v>8470.6074977226745</v>
+        <v>12884.384603950608</v>
       </c>
       <c r="W7" s="5">
         <f t="shared" si="22"/>
-        <v>11350.614046948385</v>
+        <v>18038.138445530851</v>
       </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.2">
@@ -1355,39 +1358,39 @@
       </c>
       <c r="O9" s="5">
         <f t="shared" si="28"/>
-        <v>1452.1385653530247</v>
+        <v>1967.5174985295048</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="28"/>
-        <v>2404.6864783487845</v>
+        <v>3394.99998292072</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="28"/>
-        <v>3781.7372525972451</v>
+        <v>5536.0462638498984</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="28"/>
-        <v>5750.8846850251139</v>
+        <v>8710.5889626837561</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" ref="S9:T9" si="29">S4-S8</f>
-        <v>8835.9399005888663</v>
+        <v>13602.153324844799</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="29"/>
-        <v>13146.766345509084</v>
+        <v>20676.273253182717</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" ref="U9:W9" si="30">U4-U8</f>
-        <v>19053.934469574171</v>
+        <v>30743.367012695802</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" si="30"/>
-        <v>27113.266512480594</v>
+        <v>45016.95672183812</v>
       </c>
       <c r="W9" s="5">
         <f t="shared" si="30"/>
-        <v>38070.870882300318</v>
+        <v>65197.606605043758</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -1404,44 +1407,44 @@
         <v>196.8</v>
       </c>
       <c r="N10" s="5">
-        <f>M32*$Z$18</f>
+        <f t="shared" ref="N10:W10" si="31">M32*$Z$18</f>
         <v>99.577999999999989</v>
       </c>
       <c r="O10" s="5">
-        <f>N32*$Z$18</f>
+        <f t="shared" si="31"/>
         <v>113.71918514618618</v>
       </c>
       <c r="P10" s="5">
-        <f>O32*$Z$18</f>
-        <v>138.47912035417355</v>
+        <f t="shared" si="31"/>
+        <v>146.72518328499723</v>
       </c>
       <c r="Q10" s="5">
-        <f>P32*$Z$18</f>
-        <v>178.87304324542086</v>
+        <f t="shared" si="31"/>
+        <v>203.09605925628873</v>
       </c>
       <c r="R10" s="5">
-        <f>Q32*$Z$18</f>
-        <v>241.94311402402354</v>
+        <f t="shared" si="31"/>
+        <v>294.62264247110772</v>
       </c>
       <c r="S10" s="5">
-        <f>R32*$Z$18</f>
-        <v>337.5256679143809</v>
+        <f t="shared" si="31"/>
+        <v>438.40333725915679</v>
       </c>
       <c r="T10" s="5">
-        <f>S32*$Z$18</f>
-        <v>483.99539920705973</v>
+        <f t="shared" si="31"/>
+        <v>662.74652604944697</v>
       </c>
       <c r="U10" s="5">
-        <f>T32*$Z$18</f>
-        <v>701.7788121411113</v>
+        <f t="shared" si="31"/>
+        <v>1003.8620675357548</v>
       </c>
       <c r="V10" s="5">
-        <f>U32*$Z$18</f>
-        <v>1017.5583619173349</v>
+        <f t="shared" si="31"/>
+        <v>1511.5058700882387</v>
       </c>
       <c r="W10" s="5">
-        <f>V32*$Z$18</f>
-        <v>1467.3365785491687</v>
+        <f t="shared" si="31"/>
+        <v>2255.6462902005273</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,39 +1465,39 @@
         <v>-18.18</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:R11" si="31">N11*1.01</f>
+        <f t="shared" ref="O11:R11" si="32">N11*1.01</f>
         <v>-18.361799999999999</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-18.545417999999998</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-18.730872179999999</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-18.9181809018</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" ref="S11" si="32">R11*1.01</f>
+        <f t="shared" ref="S11" si="33">R11*1.01</f>
         <v>-19.107362710817998</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" ref="T11" si="33">S11*1.01</f>
+        <f t="shared" ref="T11" si="34">S11*1.01</f>
         <v>-19.29843633792618</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" ref="U11" si="34">T11*1.01</f>
+        <f t="shared" ref="U11" si="35">T11*1.01</f>
         <v>-19.491420701305444</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" ref="V11" si="35">U11*1.01</f>
+        <f t="shared" ref="V11" si="36">U11*1.01</f>
         <v>-19.6863349083185</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" ref="W11" si="36">V11*1.01</f>
+        <f t="shared" ref="W11" si="37">V11*1.01</f>
         <v>-19.883198257401684</v>
       </c>
     </row>
@@ -1507,68 +1510,68 @@
         <v>356</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" ref="G12:I12" si="37">G9+SUM(G10:G11)</f>
+        <f t="shared" ref="G12:I12" si="38">G9+SUM(G10:G11)</f>
         <v>938</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1022.4200000000001</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1114.4378000000002</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:R12" si="38">K9+SUM(K10:K11)</f>
+        <f t="shared" ref="K12:R12" si="39">K9+SUM(K10:K11)</f>
         <v>-360.7999999999999</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>237.20000000000013</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>489.31000000000023</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>883.82407163663663</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="38"/>
-        <v>1547.4959504992107</v>
+        <f t="shared" si="39"/>
+        <v>2062.8748836756909</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="38"/>
-        <v>2524.6201807029579</v>
+        <f t="shared" si="39"/>
+        <v>3523.1797482057173</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="38"/>
-        <v>3941.8794236626659</v>
+        <f t="shared" si="39"/>
+        <v>5720.4114509261872</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="38"/>
-        <v>5973.9096181473378</v>
+        <f t="shared" si="39"/>
+        <v>8986.2934242530646</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" ref="S12:T12" si="39">S9+SUM(S10:S11)</f>
-        <v>9154.3582057924286</v>
+        <f t="shared" ref="S12:T12" si="40">S9+SUM(S10:S11)</f>
+        <v>14021.449299393138</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="39"/>
-        <v>13611.463308378217</v>
+        <f t="shared" si="40"/>
+        <v>21319.721342894238</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" ref="U12:W12" si="40">U9+SUM(U10:U11)</f>
-        <v>19736.221861013975</v>
+        <f t="shared" ref="U12:W12" si="41">U9+SUM(U10:U11)</f>
+        <v>31727.737659530252</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="40"/>
-        <v>28111.13853948961</v>
+        <f t="shared" si="41"/>
+        <v>46508.776257018042</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="40"/>
-        <v>39518.324262592083</v>
+        <f t="shared" si="41"/>
+        <v>67433.369696986891</v>
       </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.2">
@@ -1601,40 +1604,40 @@
         <v>176.76481432732734</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:W13" si="41">O12*0.2</f>
-        <v>309.49919009984217</v>
+        <f t="shared" ref="O13:W13" si="42">O12*0.2</f>
+        <v>412.57497673513819</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="41"/>
-        <v>504.92403614059162</v>
+        <f t="shared" si="42"/>
+        <v>704.6359496411435</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="41"/>
-        <v>788.37588473253322</v>
+        <f t="shared" si="42"/>
+        <v>1144.0822901852375</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="41"/>
-        <v>1194.7819236294677</v>
+        <f t="shared" si="42"/>
+        <v>1797.258684850613</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="41"/>
-        <v>1830.8716411584858</v>
+        <f t="shared" si="42"/>
+        <v>2804.2898598786278</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="41"/>
-        <v>2722.2926616756436</v>
+        <f t="shared" si="42"/>
+        <v>4263.9442685788481</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="41"/>
-        <v>3947.2443722027951</v>
+        <f t="shared" si="42"/>
+        <v>6345.5475319060506</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" si="41"/>
-        <v>5622.2277078979223</v>
+        <f t="shared" si="42"/>
+        <v>9301.7552514036088</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="41"/>
-        <v>7903.6648525184173</v>
+        <f t="shared" si="42"/>
+        <v>13486.673939397378</v>
       </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.2">
@@ -1650,15 +1653,15 @@
         <v>356</v>
       </c>
       <c r="G14" s="7" t="e">
-        <f t="shared" ref="G14:I14" si="42">G12-G13</f>
+        <f t="shared" ref="G14:I14" si="43">G12-G13</f>
         <v>#REF!</v>
       </c>
       <c r="H14" s="7" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>#REF!</v>
       </c>
       <c r="I14" s="7" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>#REF!</v>
       </c>
       <c r="J14" s="7"/>
@@ -1679,260 +1682,260 @@
         <v>707.05925730930926</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" ref="O14:W14" si="43">O12-O13</f>
-        <v>1237.9967603993687</v>
+        <f t="shared" ref="O14:W14" si="44">O12-O13</f>
+        <v>1650.2999069405528</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="43"/>
-        <v>2019.6961445623663</v>
+        <f t="shared" si="44"/>
+        <v>2818.543798564574</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="43"/>
-        <v>3153.5035389301329</v>
+        <f t="shared" si="44"/>
+        <v>4576.3291607409501</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="43"/>
-        <v>4779.1276945178706</v>
+        <f t="shared" si="44"/>
+        <v>7189.034739402452</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="43"/>
-        <v>7323.4865646339431</v>
+        <f t="shared" si="44"/>
+        <v>11217.159439514511</v>
       </c>
       <c r="T14" s="7">
-        <f t="shared" si="43"/>
-        <v>10889.170646702574</v>
+        <f t="shared" si="44"/>
+        <v>17055.777074315389</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="43"/>
-        <v>15788.977488811181</v>
+        <f t="shared" si="44"/>
+        <v>25382.190127624202</v>
       </c>
       <c r="V14" s="7">
-        <f t="shared" si="43"/>
-        <v>22488.910831591689</v>
+        <f t="shared" si="44"/>
+        <v>37207.021005614435</v>
       </c>
       <c r="W14" s="7">
-        <f t="shared" si="43"/>
-        <v>31614.659410073666</v>
+        <f t="shared" si="44"/>
+        <v>53946.695757589514</v>
       </c>
       <c r="X14" s="7">
-        <f>W14*(1+$Z$19)</f>
-        <v>31930.806004174403</v>
+        <f t="shared" ref="X14:BC14" si="45">W14*(1+$Z$19)</f>
+        <v>54486.16271516541</v>
       </c>
       <c r="Y14" s="7">
-        <f>X14*(1+$Z$19)</f>
-        <v>32250.114064216148</v>
+        <f t="shared" si="45"/>
+        <v>55031.024342317061</v>
       </c>
       <c r="Z14" s="7">
-        <f>Y14*(1+$Z$19)</f>
-        <v>32572.61520485831</v>
+        <f t="shared" si="45"/>
+        <v>55581.334585740231</v>
       </c>
       <c r="AA14" s="7">
-        <f>Z14*(1+$Z$19)</f>
-        <v>32898.341356906894</v>
+        <f t="shared" si="45"/>
+        <v>56137.147931597632</v>
       </c>
       <c r="AB14" s="7">
-        <f>AA14*(1+$Z$19)</f>
-        <v>33227.324770475963</v>
+        <f t="shared" si="45"/>
+        <v>56698.519410913606</v>
       </c>
       <c r="AC14" s="7">
-        <f>AB14*(1+$Z$19)</f>
-        <v>33559.598018180724</v>
+        <f t="shared" si="45"/>
+        <v>57265.504605022747</v>
       </c>
       <c r="AD14" s="7">
-        <f>AC14*(1+$Z$19)</f>
-        <v>33895.193998362534</v>
+        <f t="shared" si="45"/>
+        <v>57838.159651072972</v>
       </c>
       <c r="AE14" s="7">
-        <f>AD14*(1+$Z$19)</f>
-        <v>34234.145938346162</v>
+        <f t="shared" si="45"/>
+        <v>58416.5412475837</v>
       </c>
       <c r="AF14" s="7">
-        <f>AE14*(1+$Z$19)</f>
-        <v>34576.487397729623</v>
+        <f t="shared" si="45"/>
+        <v>59000.706660059535</v>
       </c>
       <c r="AG14" s="7">
-        <f>AF14*(1+$Z$19)</f>
-        <v>34922.252271706922</v>
+        <f t="shared" si="45"/>
+        <v>59590.713726660135</v>
       </c>
       <c r="AH14" s="7">
-        <f>AG14*(1+$Z$19)</f>
-        <v>35271.474794423993</v>
+        <f t="shared" si="45"/>
+        <v>60186.620863926735</v>
       </c>
       <c r="AI14" s="7">
-        <f>AH14*(1+$Z$19)</f>
-        <v>35624.189542368236</v>
+        <f t="shared" si="45"/>
+        <v>60788.487072566</v>
       </c>
       <c r="AJ14" s="7">
-        <f>AI14*(1+$Z$19)</f>
-        <v>35980.431437791922</v>
+        <f t="shared" si="45"/>
+        <v>61396.371943291662</v>
       </c>
       <c r="AK14" s="7">
-        <f>AJ14*(1+$Z$19)</f>
-        <v>36340.235752169843</v>
+        <f t="shared" si="45"/>
+        <v>62010.335662724581</v>
       </c>
       <c r="AL14" s="7">
-        <f>AK14*(1+$Z$19)</f>
-        <v>36703.638109691543</v>
+        <f t="shared" si="45"/>
+        <v>62630.439019351827</v>
       </c>
       <c r="AM14" s="7">
-        <f>AL14*(1+$Z$19)</f>
-        <v>37070.674490788457</v>
+        <f t="shared" si="45"/>
+        <v>63256.743409545343</v>
       </c>
       <c r="AN14" s="7">
-        <f>AM14*(1+$Z$19)</f>
-        <v>37441.381235696339</v>
+        <f t="shared" si="45"/>
+        <v>63889.3108436408</v>
       </c>
       <c r="AO14" s="7">
-        <f>AN14*(1+$Z$19)</f>
-        <v>37815.795048053304</v>
+        <f t="shared" si="45"/>
+        <v>64528.203952077209</v>
       </c>
       <c r="AP14" s="7">
-        <f>AO14*(1+$Z$19)</f>
-        <v>38193.952998533838</v>
+        <f t="shared" si="45"/>
+        <v>65173.485991597983</v>
       </c>
       <c r="AQ14" s="7">
-        <f>AP14*(1+$Z$19)</f>
-        <v>38575.89252851918</v>
+        <f t="shared" si="45"/>
+        <v>65825.220851513965</v>
       </c>
       <c r="AR14" s="7">
-        <f>AQ14*(1+$Z$19)</f>
-        <v>38961.65145380437</v>
+        <f t="shared" si="45"/>
+        <v>66483.473060029108</v>
       </c>
       <c r="AS14" s="7">
-        <f>AR14*(1+$Z$19)</f>
-        <v>39351.267968342414</v>
+        <f t="shared" si="45"/>
+        <v>67148.307790629406</v>
       </c>
       <c r="AT14" s="7">
-        <f>AS14*(1+$Z$19)</f>
-        <v>39744.780648025837</v>
+        <f t="shared" si="45"/>
+        <v>67819.790868535696</v>
       </c>
       <c r="AU14" s="7">
-        <f>AT14*(1+$Z$19)</f>
-        <v>40142.228454506097</v>
+        <f t="shared" si="45"/>
+        <v>68497.98877722105</v>
       </c>
       <c r="AV14" s="7">
-        <f>AU14*(1+$Z$19)</f>
-        <v>40543.650739051162</v>
+        <f t="shared" si="45"/>
+        <v>69182.968664993256</v>
       </c>
       <c r="AW14" s="7">
-        <f>AV14*(1+$Z$19)</f>
-        <v>40949.087246441675</v>
+        <f t="shared" si="45"/>
+        <v>69874.798351643185</v>
       </c>
       <c r="AX14" s="7">
-        <f>AW14*(1+$Z$19)</f>
-        <v>41358.578118906094</v>
+        <f t="shared" si="45"/>
+        <v>70573.546335159612</v>
       </c>
       <c r="AY14" s="7">
-        <f>AX14*(1+$Z$19)</f>
-        <v>41772.163900095155</v>
+        <f t="shared" si="45"/>
+        <v>71279.281798511205</v>
       </c>
       <c r="AZ14" s="7">
-        <f>AY14*(1+$Z$19)</f>
-        <v>42189.885539096103</v>
+        <f t="shared" si="45"/>
+        <v>71992.07461649632</v>
       </c>
       <c r="BA14" s="7">
-        <f>AZ14*(1+$Z$19)</f>
-        <v>42611.784394487062</v>
+        <f t="shared" si="45"/>
+        <v>72711.995362661284</v>
       </c>
       <c r="BB14" s="7">
-        <f>BA14*(1+$Z$19)</f>
-        <v>43037.902238431932</v>
+        <f t="shared" si="45"/>
+        <v>73439.115316287891</v>
       </c>
       <c r="BC14" s="7">
-        <f>BB14*(1+$Z$19)</f>
-        <v>43468.281260816249</v>
+        <f t="shared" si="45"/>
+        <v>74173.506469450775</v>
       </c>
       <c r="BD14" s="7">
-        <f>BC14*(1+$Z$19)</f>
-        <v>43902.964073424409</v>
+        <f t="shared" ref="BD14:BZ14" si="46">BC14*(1+$Z$19)</f>
+        <v>74915.241534145287</v>
       </c>
       <c r="BE14" s="7">
-        <f>BD14*(1+$Z$19)</f>
-        <v>44341.993714158656</v>
+        <f t="shared" si="46"/>
+        <v>75664.393949486737</v>
       </c>
       <c r="BF14" s="7">
-        <f>BE14*(1+$Z$19)</f>
-        <v>44785.413651300245</v>
+        <f t="shared" si="46"/>
+        <v>76421.037888981606</v>
       </c>
       <c r="BG14" s="7">
-        <f>BF14*(1+$Z$19)</f>
-        <v>45233.267787813245</v>
+        <f t="shared" si="46"/>
+        <v>77185.24826787143</v>
       </c>
       <c r="BH14" s="7">
-        <f>BG14*(1+$Z$19)</f>
-        <v>45685.600465691379</v>
+        <f t="shared" si="46"/>
+        <v>77957.100750550147</v>
       </c>
       <c r="BI14" s="7">
-        <f>BH14*(1+$Z$19)</f>
-        <v>46142.45647034829</v>
+        <f t="shared" si="46"/>
+        <v>78736.671758055643</v>
       </c>
       <c r="BJ14" s="7">
-        <f>BI14*(1+$Z$19)</f>
-        <v>46603.881035051774</v>
+        <f t="shared" si="46"/>
+        <v>79524.038475636204</v>
       </c>
       <c r="BK14" s="7">
-        <f>BJ14*(1+$Z$19)</f>
-        <v>47069.919845402292</v>
+        <f t="shared" si="46"/>
+        <v>80319.278860392573</v>
       </c>
       <c r="BL14" s="7">
-        <f>BK14*(1+$Z$19)</f>
-        <v>47540.619043856314</v>
+        <f t="shared" si="46"/>
+        <v>81122.471648996492</v>
       </c>
       <c r="BM14" s="7">
-        <f>BL14*(1+$Z$19)</f>
-        <v>48016.025234294881</v>
+        <f t="shared" si="46"/>
+        <v>81933.696365486452</v>
       </c>
       <c r="BN14" s="7">
-        <f>BM14*(1+$Z$19)</f>
-        <v>48496.185486637827</v>
+        <f t="shared" si="46"/>
+        <v>82753.033329141312</v>
       </c>
       <c r="BO14" s="7">
-        <f>BN14*(1+$Z$19)</f>
-        <v>48981.147341504206</v>
+        <f t="shared" si="46"/>
+        <v>83580.563662432731</v>
       </c>
       <c r="BP14" s="7">
-        <f>BO14*(1+$Z$19)</f>
-        <v>49470.95881491925</v>
+        <f t="shared" si="46"/>
+        <v>84416.369299057056</v>
       </c>
       <c r="BQ14" s="7">
-        <f>BP14*(1+$Z$19)</f>
-        <v>49965.668403068441</v>
+        <f t="shared" si="46"/>
+        <v>85260.532992047622</v>
       </c>
       <c r="BR14" s="7">
-        <f>BQ14*(1+$Z$19)</f>
-        <v>50465.325087099125</v>
+        <f t="shared" si="46"/>
+        <v>86113.138321968101</v>
       </c>
       <c r="BS14" s="7">
-        <f>BR14*(1+$Z$19)</f>
-        <v>50969.978337970118</v>
+        <f t="shared" si="46"/>
+        <v>86974.269705187777</v>
       </c>
       <c r="BT14" s="7">
-        <f>BS14*(1+$Z$19)</f>
-        <v>51479.678121349818</v>
+        <f t="shared" si="46"/>
+        <v>87844.012402239649</v>
       </c>
       <c r="BU14" s="7">
-        <f>BT14*(1+$Z$19)</f>
-        <v>51994.474902563314</v>
+        <f t="shared" si="46"/>
+        <v>88722.452526262045</v>
       </c>
       <c r="BV14" s="7">
-        <f>BU14*(1+$Z$19)</f>
-        <v>52514.419651588949</v>
+        <f t="shared" si="46"/>
+        <v>89609.677051524661</v>
       </c>
       <c r="BW14" s="7">
-        <f>BV14*(1+$Z$19)</f>
-        <v>53039.563848104837</v>
+        <f t="shared" si="46"/>
+        <v>90505.773822039904</v>
       </c>
       <c r="BX14" s="7">
-        <f>BW14*(1+$Z$19)</f>
-        <v>53569.959486585889</v>
+        <f t="shared" si="46"/>
+        <v>91410.831560260311</v>
       </c>
       <c r="BY14" s="7">
-        <f>BX14*(1+$Z$19)</f>
-        <v>54105.659081451748</v>
+        <f t="shared" si="46"/>
+        <v>92324.93987586291</v>
       </c>
       <c r="BZ14" s="7">
-        <f>BY14*(1+$Z$19)</f>
-        <v>54646.715672266262</v>
+        <f t="shared" si="46"/>
+        <v>93248.189274621545</v>
       </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.2">
@@ -1973,11 +1976,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="9" t="e">
-        <f t="shared" ref="H18:I18" si="44">H2/D2-1</f>
+        <f t="shared" ref="H18:I18" si="47">H2/D2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.34675262839879162</v>
       </c>
       <c r="J18" s="7"/>
@@ -1995,45 +1998,45 @@
         <v>0.3731836677717677</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" ref="O18:W18" si="45">O2/N2-1</f>
-        <v>0.34000000000000008</v>
+        <f t="shared" ref="O18:W18" si="48">O2/N2-1</f>
+        <v>0.5</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.40000000000000013</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="45"/>
-        <v>0.34000000000000008</v>
+        <f t="shared" si="48"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="Y18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -2054,64 +2057,64 @@
         <v>9.0697674418604546E-2</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" ref="H19:I19" si="46">H2/G2-1</f>
+        <f t="shared" ref="H19:I19" si="49">H2/G2-1</f>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9">
-        <f t="shared" ref="M19:S19" si="47">M18/L18-1</f>
+        <f t="shared" ref="M19:S19" si="50">M18/L18-1</f>
         <v>0.71871377882909493</v>
       </c>
       <c r="N19" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.29638354534298683</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="47"/>
-        <v>-8.8920471707411797E-2</v>
+        <f t="shared" si="50"/>
+        <v>0.3398228357243942</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="47"/>
+      <c r="R19" s="9">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R19" s="9">
-        <f t="shared" si="47"/>
+      <c r="S19" s="9">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="S19" s="9">
-        <f t="shared" si="47"/>
+      <c r="T19" s="9">
+        <f t="shared" ref="T19:W19" si="51">T18/S18-1</f>
         <v>0</v>
       </c>
-      <c r="T19" s="9">
-        <f t="shared" ref="T19:W19" si="48">T18/S18-1</f>
+      <c r="U19" s="9">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="U19" s="9">
-        <f t="shared" si="48"/>
+      <c r="V19" s="9">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="V19" s="9">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
       <c r="W19" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -2155,46 +2158,46 @@
         <v>0.20392759088692775</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" ref="O20:W20" si="49">O9/O2</f>
-        <v>0.27540652079780564</v>
+        <f t="shared" ref="O20:W20" si="52">O9/O2</f>
+        <v>0.33334834421538767</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.34034535078370187</v>
+        <f t="shared" si="52"/>
+        <v>0.41085770838622837</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.39943665334639089</v>
+        <f t="shared" si="52"/>
+        <v>0.47854561180896504</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.45330073545136418</v>
+        <f t="shared" si="52"/>
+        <v>0.53782763336037565</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.51975624864079761</v>
+        <f t="shared" si="52"/>
+        <v>0.59989497205612952</v>
       </c>
       <c r="T20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.57711333843647572</v>
+        <f t="shared" si="52"/>
+        <v>0.65134604947267316</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.62419751662695755</v>
+        <f t="shared" si="52"/>
+        <v>0.69177189601424316</v>
       </c>
       <c r="V20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.66284870767884585</v>
+        <f t="shared" si="52"/>
+        <v>0.7235350611540482</v>
       </c>
       <c r="W20" s="8">
-        <f t="shared" si="49"/>
-        <v>0.69457729734830631</v>
+        <f t="shared" si="52"/>
+        <v>0.74849183376389494</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z20" s="10">
-        <v>0.1</v>
+      <c r="Z20" s="11">
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.2">
@@ -2202,27 +2205,27 @@
         <v>32</v>
       </c>
       <c r="B21" s="8" t="e">
-        <f t="shared" ref="B21:G21" si="50">B4/B2-1</f>
+        <f t="shared" ref="B21:G21" si="53">B4/B2-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C21" s="8" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D21" s="8" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
@@ -2244,19 +2247,19 @@
         <v>0.81050605478974014</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" ref="O21:R21" si="51">N21*1.01</f>
+        <f t="shared" ref="O21:R21" si="54">N21*1.01</f>
         <v>0.81861111533763753</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.82679722649101395</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.83506519875592411</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.84341585074348335</v>
       </c>
       <c r="S21" s="8">
@@ -2279,7 +2282,7 @@
       </c>
       <c r="Z21" s="5">
         <f>NPV(Z20,N29:BZ29)+Sheet1!D5-Sheet1!D6</f>
-        <v>263220.32987096423</v>
+        <v>438533.84165427909</v>
       </c>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.2">
@@ -2299,59 +2302,59 @@
         <v>0.87018574876692201</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" ref="L22:W22" si="52">L8/L2</f>
+        <f t="shared" ref="L22:W22" si="55">L8/L2</f>
         <v>0.75226966292134834</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0.69411969987785727</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0.60657846390281234</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.54320459453983183</v>
+        <f t="shared" si="55"/>
+        <v>0.4852627711222498</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.48645187570731208</v>
+        <f t="shared" si="55"/>
+        <v>0.41593951810478558</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.43562854540953316</v>
+        <f t="shared" si="55"/>
+        <v>0.35651958694695907</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.39011511529211917</v>
+        <f t="shared" si="55"/>
+        <v>0.30558821738310776</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.32024375135920236</v>
+        <f t="shared" si="55"/>
+        <v>0.2401050279438704</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.2628866615635243</v>
+        <f t="shared" si="55"/>
+        <v>0.18865395052732678</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.21580248337304236</v>
+        <f t="shared" si="55"/>
+        <v>0.14822810398575678</v>
       </c>
       <c r="V22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.17715129232115417</v>
+        <f t="shared" si="55"/>
+        <v>0.11646493884595176</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="52"/>
-        <v>0.14542270265169371</v>
+        <f t="shared" si="55"/>
+        <v>9.1508166236104971E-2</v>
       </c>
       <c r="Y22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22" s="10">
         <f>Z21/Sheet1!D3</f>
-        <v>111.53829165983629</v>
+        <v>185.82651103401363</v>
       </c>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.2">
@@ -2360,7 +2363,7 @@
       </c>
       <c r="Z23" s="8">
         <f>Z22/Sheet1!D2-1</f>
-        <v>-6.2703431429947165E-2</v>
+        <v>0.56156731961355999</v>
       </c>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.2">
@@ -2372,56 +2375,56 @@
         <v>#REF!</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ref="K24:N24" si="53">K20+K18</f>
+        <f t="shared" ref="K24:N24" si="56">K20+K18</f>
         <v>-8.4531430370448066E-2</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.2214662467382244</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.39622671102754792</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.5771112586586955</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" ref="O24:W24" si="54">O20+O18</f>
-        <v>0.61540652079780567</v>
+        <f t="shared" ref="O24:W24" si="57">O20+O18</f>
+        <v>0.83334834421538773</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="54"/>
-        <v>0.68034535078370195</v>
+        <f t="shared" si="57"/>
+        <v>0.81085770838622828</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="54"/>
-        <v>0.73943665334639097</v>
+        <f t="shared" si="57"/>
+        <v>0.87854561180896495</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="54"/>
-        <v>0.79330073545136426</v>
+        <f t="shared" si="57"/>
+        <v>0.93782763336037556</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="54"/>
-        <v>0.85975624864079769</v>
+        <f t="shared" si="57"/>
+        <v>0.99989497205612943</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="54"/>
-        <v>0.9171133384364758</v>
+        <f t="shared" si="57"/>
+        <v>1.0513460494726732</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="54"/>
-        <v>0.96419751662695763</v>
+        <f t="shared" si="57"/>
+        <v>1.0917718960142433</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="54"/>
-        <v>1.0028487076788459</v>
+        <f t="shared" si="57"/>
+        <v>1.123535061154048</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="54"/>
-        <v>1.0345772973483065</v>
+        <f t="shared" si="57"/>
+        <v>1.1484918337638947</v>
       </c>
     </row>
     <row r="25" spans="1:73" x14ac:dyDescent="0.2">
@@ -2449,27 +2452,27 @@
         <v>0.44728427034898183</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" ref="P25:U25" si="55">O25*1.1</f>
+        <f t="shared" ref="P25:U25" si="58">O25*1.1</f>
         <v>0.49201269738388004</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.5412139671222681</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.59533536383449492</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.65486890021794442</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.72035579023973895</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.7923913692637129</v>
       </c>
       <c r="V25" s="8">
@@ -2533,251 +2536,251 @@
         <v>-116.90000000000003</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" ref="L29:M29" si="56">L27-L28</f>
+        <f t="shared" ref="L29:M29" si="59">L27-L28</f>
         <v>-1998.9999999999998</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1108.3999999999999</v>
       </c>
       <c r="N29" s="7">
         <v>1600</v>
       </c>
       <c r="O29" s="7">
-        <f>O25*O2</f>
-        <v>2358.4</v>
+        <f t="shared" ref="O29:W29" si="60">O25*O2</f>
+        <v>2640</v>
       </c>
       <c r="P29" s="7">
-        <f>P25*P2</f>
-        <v>3476.2816000000007</v>
+        <f t="shared" si="60"/>
+        <v>4065.6</v>
       </c>
       <c r="Q29" s="7">
-        <f>Q25*Q2</f>
-        <v>5124.0390784000019</v>
+        <f t="shared" si="60"/>
+        <v>6261.0240000000013</v>
       </c>
       <c r="R29" s="7">
-        <f>R25*R2</f>
-        <v>7552.8336015616042</v>
+        <f t="shared" si="60"/>
+        <v>9641.9769600000018</v>
       </c>
       <c r="S29" s="7">
-        <f>S25*S2</f>
-        <v>11132.876728701804</v>
+        <f t="shared" si="60"/>
+        <v>14848.644518400002</v>
       </c>
       <c r="T29" s="7">
-        <f>T25*T2</f>
-        <v>16409.860298106465</v>
+        <f t="shared" si="60"/>
+        <v>22866.912558336004</v>
       </c>
       <c r="U29" s="7">
-        <f>U25*U2</f>
-        <v>24188.13407940893</v>
+        <f t="shared" si="60"/>
+        <v>35215.045339837445</v>
       </c>
       <c r="V29" s="7">
-        <f>V25*V2</f>
-        <v>32723.324280046283</v>
+        <f t="shared" si="60"/>
+        <v>49774.457812767738</v>
       </c>
       <c r="W29" s="7">
-        <f>W25*W2</f>
-        <v>43849.254535262022</v>
+        <f t="shared" si="60"/>
+        <v>69684.240937874827</v>
       </c>
       <c r="X29" s="7">
-        <f>W29*(1+$Z$19)</f>
-        <v>44287.747080614645</v>
+        <f t="shared" ref="X29:BC29" si="61">W29*(1+$Z$19)</f>
+        <v>70381.083347253574</v>
       </c>
       <c r="Y29" s="7">
-        <f>X29*(1+$Z$19)</f>
-        <v>44730.624551420791</v>
+        <f t="shared" si="61"/>
+        <v>71084.894180726114</v>
       </c>
       <c r="Z29" s="7">
-        <f>Y29*(1+$Z$19)</f>
-        <v>45177.930796934997</v>
+        <f t="shared" si="61"/>
+        <v>71795.743122533371</v>
       </c>
       <c r="AA29" s="7">
-        <f>Z29*(1+$Z$19)</f>
-        <v>45629.710104904349</v>
+        <f t="shared" si="61"/>
+        <v>72513.70055375871</v>
       </c>
       <c r="AB29" s="7">
-        <f>AA29*(1+$Z$19)</f>
-        <v>46086.007205953392</v>
+        <f t="shared" si="61"/>
+        <v>73238.837559296298</v>
       </c>
       <c r="AC29" s="7">
-        <f>AB29*(1+$Z$19)</f>
-        <v>46546.867278012927</v>
+        <f t="shared" si="61"/>
+        <v>73971.225934889255</v>
       </c>
       <c r="AD29" s="7">
-        <f>AC29*(1+$Z$19)</f>
-        <v>47012.335950793058</v>
+        <f t="shared" si="61"/>
+        <v>74710.938194238144</v>
       </c>
       <c r="AE29" s="7">
-        <f>AD29*(1+$Z$19)</f>
-        <v>47482.45931030099</v>
+        <f t="shared" si="61"/>
+        <v>75458.047576180528</v>
       </c>
       <c r="AF29" s="7">
-        <f>AE29*(1+$Z$19)</f>
-        <v>47957.283903404001</v>
+        <f t="shared" si="61"/>
+        <v>76212.628051942331</v>
       </c>
       <c r="AG29" s="7">
-        <f>AF29*(1+$Z$19)</f>
-        <v>48436.856742438038</v>
+        <f t="shared" si="61"/>
+        <v>76974.754332461758</v>
       </c>
       <c r="AH29" s="7">
-        <f>AG29*(1+$Z$19)</f>
-        <v>48921.225309862421</v>
+        <f t="shared" si="61"/>
+        <v>77744.501875786373</v>
       </c>
       <c r="AI29" s="7">
-        <f>AH29*(1+$Z$19)</f>
-        <v>49410.437562961044</v>
+        <f t="shared" si="61"/>
+        <v>78521.946894544235</v>
       </c>
       <c r="AJ29" s="7">
-        <f>AI29*(1+$Z$19)</f>
-        <v>49904.541938590657</v>
+        <f t="shared" si="61"/>
+        <v>79307.166363489683</v>
       </c>
       <c r="AK29" s="7">
-        <f>AJ29*(1+$Z$19)</f>
-        <v>50403.587357976561</v>
+        <f t="shared" si="61"/>
+        <v>80100.238027124578</v>
       </c>
       <c r="AL29" s="7">
-        <f>AK29*(1+$Z$19)</f>
-        <v>50907.623231556325</v>
+        <f t="shared" si="61"/>
+        <v>80901.240407395831</v>
       </c>
       <c r="AM29" s="7">
-        <f>AL29*(1+$Z$19)</f>
-        <v>51416.69946387189</v>
+        <f t="shared" si="61"/>
+        <v>81710.252811469793</v>
       </c>
       <c r="AN29" s="7">
-        <f>AM29*(1+$Z$19)</f>
-        <v>51930.866458510609</v>
+        <f t="shared" si="61"/>
+        <v>82527.355339584494</v>
       </c>
       <c r="AO29" s="7">
-        <f>AN29*(1+$Z$19)</f>
-        <v>52450.175123095716</v>
+        <f t="shared" si="61"/>
+        <v>83352.628892980341</v>
       </c>
       <c r="AP29" s="7">
-        <f>AO29*(1+$Z$19)</f>
-        <v>52974.676874326673</v>
+        <f t="shared" si="61"/>
+        <v>84186.155181910144</v>
       </c>
       <c r="AQ29" s="7">
-        <f>AP29*(1+$Z$19)</f>
-        <v>53504.423643069938</v>
+        <f t="shared" si="61"/>
+        <v>85028.016733729251</v>
       </c>
       <c r="AR29" s="7">
-        <f>AQ29*(1+$Z$19)</f>
-        <v>54039.46787950064</v>
+        <f t="shared" si="61"/>
+        <v>85878.29690106654</v>
       </c>
       <c r="AS29" s="7">
-        <f>AR29*(1+$Z$19)</f>
-        <v>54579.862558295645</v>
+        <f t="shared" si="61"/>
+        <v>86737.079870077199</v>
       </c>
       <c r="AT29" s="7">
-        <f>AS29*(1+$Z$19)</f>
-        <v>55125.661183878605</v>
+        <f t="shared" si="61"/>
+        <v>87604.450668777965</v>
       </c>
       <c r="AU29" s="7">
-        <f>AT29*(1+$Z$19)</f>
-        <v>55676.917795717389</v>
+        <f t="shared" si="61"/>
+        <v>88480.495175465752</v>
       </c>
       <c r="AV29" s="7">
-        <f>AU29*(1+$Z$19)</f>
-        <v>56233.686973674565</v>
+        <f t="shared" si="61"/>
+        <v>89365.300127220413</v>
       </c>
       <c r="AW29" s="7">
-        <f>AV29*(1+$Z$19)</f>
-        <v>56796.023843411313</v>
+        <f t="shared" si="61"/>
+        <v>90258.95312849262</v>
       </c>
       <c r="AX29" s="7">
-        <f>AW29*(1+$Z$19)</f>
-        <v>57363.984081845425</v>
+        <f t="shared" si="61"/>
+        <v>91161.542659777551</v>
       </c>
       <c r="AY29" s="7">
-        <f>AX29*(1+$Z$19)</f>
-        <v>57937.623922663879</v>
+        <f t="shared" si="61"/>
+        <v>92073.158086375333</v>
       </c>
       <c r="AZ29" s="7">
-        <f>AY29*(1+$Z$19)</f>
-        <v>58517.000161890515</v>
+        <f t="shared" si="61"/>
+        <v>92993.889667239084</v>
       </c>
       <c r="BA29" s="7">
-        <f>AZ29*(1+$Z$19)</f>
-        <v>59102.170163509421</v>
+        <f t="shared" si="61"/>
+        <v>93923.828563911477</v>
       </c>
       <c r="BB29" s="7">
-        <f>BA29*(1+$Z$19)</f>
-        <v>59693.191865144516</v>
+        <f t="shared" si="61"/>
+        <v>94863.066849550596</v>
       </c>
       <c r="BC29" s="7">
-        <f>BB29*(1+$Z$19)</f>
-        <v>60290.123783795963</v>
+        <f t="shared" si="61"/>
+        <v>95811.697518046101</v>
       </c>
       <c r="BD29" s="7">
-        <f>BC29*(1+$Z$19)</f>
-        <v>60893.025021633926</v>
+        <f t="shared" ref="BD29:BU29" si="62">BC29*(1+$Z$19)</f>
+        <v>96769.814493226557</v>
       </c>
       <c r="BE29" s="7">
-        <f>BD29*(1+$Z$19)</f>
-        <v>61501.955271850267</v>
+        <f t="shared" si="62"/>
+        <v>97737.51263815882</v>
       </c>
       <c r="BF29" s="7">
-        <f>BE29*(1+$Z$19)</f>
-        <v>62116.974824568773</v>
+        <f t="shared" si="62"/>
+        <v>98714.887764540414</v>
       </c>
       <c r="BG29" s="7">
-        <f>BF29*(1+$Z$19)</f>
-        <v>62738.144572814461</v>
+        <f t="shared" si="62"/>
+        <v>99702.03664218582</v>
       </c>
       <c r="BH29" s="7">
-        <f>BG29*(1+$Z$19)</f>
-        <v>63365.526018542609</v>
+        <f t="shared" si="62"/>
+        <v>100699.05700860768</v>
       </c>
       <c r="BI29" s="7">
-        <f>BH29*(1+$Z$19)</f>
-        <v>63999.181278728036</v>
+        <f t="shared" si="62"/>
+        <v>101706.04757869376</v>
       </c>
       <c r="BJ29" s="7">
-        <f>BI29*(1+$Z$19)</f>
-        <v>64639.173091515317</v>
+        <f t="shared" si="62"/>
+        <v>102723.1080544807</v>
       </c>
       <c r="BK29" s="7">
-        <f>BJ29*(1+$Z$19)</f>
-        <v>65285.564822430468</v>
+        <f t="shared" si="62"/>
+        <v>103750.33913502551</v>
       </c>
       <c r="BL29" s="7">
-        <f>BK29*(1+$Z$19)</f>
-        <v>65938.420470654775</v>
+        <f t="shared" si="62"/>
+        <v>104787.84252637577</v>
       </c>
       <c r="BM29" s="7">
-        <f>BL29*(1+$Z$19)</f>
-        <v>66597.804675361331</v>
+        <f t="shared" si="62"/>
+        <v>105835.72095163952</v>
       </c>
       <c r="BN29" s="7">
-        <f>BM29*(1+$Z$19)</f>
-        <v>67263.782722114949</v>
+        <f t="shared" si="62"/>
+        <v>106894.07816115592</v>
       </c>
       <c r="BO29" s="7">
-        <f>BN29*(1+$Z$19)</f>
-        <v>67936.420549336093</v>
+        <f t="shared" si="62"/>
+        <v>107963.01894276748</v>
       </c>
       <c r="BP29" s="7">
-        <f>BO29*(1+$Z$19)</f>
-        <v>68615.784754829452</v>
+        <f t="shared" si="62"/>
+        <v>109042.64913219515</v>
       </c>
       <c r="BQ29" s="7">
-        <f>BP29*(1+$Z$19)</f>
-        <v>69301.942602377749</v>
+        <f t="shared" si="62"/>
+        <v>110133.0756235171</v>
       </c>
       <c r="BR29" s="7">
-        <f>BQ29*(1+$Z$19)</f>
-        <v>69994.962028401525</v>
+        <f t="shared" si="62"/>
+        <v>111234.40637975227</v>
       </c>
       <c r="BS29" s="7">
-        <f>BR29*(1+$Z$19)</f>
-        <v>70694.911648685535</v>
+        <f t="shared" si="62"/>
+        <v>112346.7504435498</v>
       </c>
       <c r="BT29" s="7">
-        <f>BS29*(1+$Z$19)</f>
-        <v>71401.860765172387</v>
+        <f t="shared" si="62"/>
+        <v>113470.21794798529</v>
       </c>
       <c r="BU29" s="7">
-        <f>BT29*(1+$Z$19)</f>
-        <v>72115.879372824114</v>
+        <f t="shared" si="62"/>
+        <v>114604.92012746514</v>
       </c>
     </row>
     <row r="30" spans="1:73" x14ac:dyDescent="0.2">
@@ -2823,44 +2826,44 @@
         <v>4978.8999999999996</v>
       </c>
       <c r="N32" s="5">
-        <f>M32+N14</f>
+        <f t="shared" ref="N32:W32" si="63">M32+N14</f>
         <v>5685.9592573093087</v>
       </c>
       <c r="O32" s="5">
-        <f>N32+O14</f>
-        <v>6923.9560177086769</v>
+        <f t="shared" si="63"/>
+        <v>7336.259164249861</v>
       </c>
       <c r="P32" s="5">
-        <f>O32+P14</f>
-        <v>8943.6521622710425</v>
+        <f t="shared" si="63"/>
+        <v>10154.802962814436</v>
       </c>
       <c r="Q32" s="5">
-        <f>P32+Q14</f>
-        <v>12097.155701201176</v>
+        <f t="shared" si="63"/>
+        <v>14731.132123555386</v>
       </c>
       <c r="R32" s="5">
-        <f>Q32+R14</f>
-        <v>16876.283395719045</v>
+        <f t="shared" si="63"/>
+        <v>21920.166862957838</v>
       </c>
       <c r="S32" s="5">
-        <f>R32+S14</f>
-        <v>24199.769960352987</v>
+        <f t="shared" si="63"/>
+        <v>33137.326302472349</v>
       </c>
       <c r="T32" s="5">
-        <f>S32+T14</f>
-        <v>35088.940607055563</v>
+        <f t="shared" si="63"/>
+        <v>50193.103376787738</v>
       </c>
       <c r="U32" s="5">
-        <f>T32+U14</f>
-        <v>50877.918095866742</v>
+        <f t="shared" si="63"/>
+        <v>75575.293504411937</v>
       </c>
       <c r="V32" s="5">
-        <f>U32+V14</f>
-        <v>73366.828927458439</v>
+        <f t="shared" si="63"/>
+        <v>112782.31451002636</v>
       </c>
       <c r="W32" s="5">
-        <f>V32+W14</f>
-        <v>104981.48833753211</v>
+        <f t="shared" si="63"/>
+        <v>166729.01026761587</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
